--- a/database/industries/lastic/pekerman/cost/quarterly.xlsx
+++ b/database/industries/lastic/pekerman/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekerman\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C002828B-5D82-4F7C-9DD7-BEB767AF46A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پکرمان-گروه‌ صنعتی‌ بارز</t>
@@ -33,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -46,6 +44,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -244,7 +245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,7 +415,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -426,7 +427,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -473,6 +474,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -508,6 +526,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -659,17 +694,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -679,7 +714,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -691,7 +726,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -703,7 +738,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -713,7 +748,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -725,7 +760,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -737,7 +772,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -747,7 +782,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -769,7 +804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -779,95 +814,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>9940217</v>
+        <v>11385682</v>
       </c>
       <c r="F10" s="9">
-        <v>11385682</v>
+        <v>10857129</v>
       </c>
       <c r="G10" s="9">
-        <v>10857129</v>
+        <v>12231911</v>
       </c>
       <c r="H10" s="9">
-        <v>12231911</v>
+        <v>12970943</v>
       </c>
       <c r="I10" s="9">
-        <v>12970943</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12076340</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>321419</v>
+        <v>368602</v>
       </c>
       <c r="F11" s="11">
-        <v>368602</v>
+        <v>416488</v>
       </c>
       <c r="G11" s="11">
-        <v>416488</v>
+        <v>672684</v>
       </c>
       <c r="H11" s="11">
-        <v>672684</v>
+        <v>602365</v>
       </c>
       <c r="I11" s="11">
-        <v>602365</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>685058</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1290288</v>
+        <v>1280068</v>
       </c>
       <c r="F12" s="9">
-        <v>1280068</v>
+        <v>1806577</v>
       </c>
       <c r="G12" s="9">
-        <v>1806577</v>
+        <v>2443282</v>
       </c>
       <c r="H12" s="9">
-        <v>2443282</v>
+        <v>1467879</v>
       </c>
       <c r="I12" s="9">
-        <v>1467879</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1883804</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>11551924</v>
+        <v>13034352</v>
       </c>
       <c r="F13" s="13">
-        <v>13034352</v>
+        <v>13080194</v>
       </c>
       <c r="G13" s="13">
-        <v>13080194</v>
+        <v>15347877</v>
       </c>
       <c r="H13" s="13">
-        <v>15347877</v>
+        <v>15041187</v>
       </c>
       <c r="I13" s="13">
-        <v>15041187</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14645202</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -889,61 +924,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>11551924</v>
+        <v>13034352</v>
       </c>
       <c r="F15" s="13">
-        <v>13034352</v>
+        <v>13080194</v>
       </c>
       <c r="G15" s="13">
-        <v>13080194</v>
+        <v>15347877</v>
       </c>
       <c r="H15" s="13">
-        <v>15347877</v>
+        <v>15041187</v>
       </c>
       <c r="I15" s="13">
-        <v>15041187</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14645202</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>193996</v>
+        <v>-150014</v>
       </c>
       <c r="F16" s="9">
-        <v>-150014</v>
+        <v>15712</v>
       </c>
       <c r="G16" s="9">
-        <v>15712</v>
+        <v>-67384</v>
       </c>
       <c r="H16" s="9">
-        <v>-67384</v>
+        <v>-293855</v>
       </c>
       <c r="I16" s="9">
-        <v>-293855</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-653143</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>-49510</v>
+        <v>49510</v>
       </c>
       <c r="F17" s="11">
-        <v>49510</v>
+        <v>0</v>
       </c>
       <c r="G17" s="11">
         <v>0</v>
@@ -955,95 +990,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>11696410</v>
+        <v>12933848</v>
       </c>
       <c r="F18" s="15">
-        <v>12933848</v>
+        <v>13095906</v>
       </c>
       <c r="G18" s="15">
-        <v>13095906</v>
+        <v>15280493</v>
       </c>
       <c r="H18" s="15">
-        <v>15280493</v>
+        <v>14747332</v>
       </c>
       <c r="I18" s="15">
-        <v>14747332</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13992059</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F19" s="11">
-        <v>1</v>
+        <v>915441</v>
       </c>
       <c r="G19" s="11">
-        <v>915441</v>
+        <v>5035014</v>
       </c>
       <c r="H19" s="11">
-        <v>5035014</v>
+        <v>5583554</v>
       </c>
       <c r="I19" s="11">
-        <v>5583554</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3423514</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>1364023</v>
+        <v>-915441</v>
       </c>
       <c r="F20" s="9">
-        <v>-915441</v>
+        <v>-5035014</v>
       </c>
       <c r="G20" s="9">
-        <v>-5035014</v>
+        <v>-5583554</v>
       </c>
       <c r="H20" s="9">
-        <v>-5583554</v>
+        <v>-3423514</v>
       </c>
       <c r="I20" s="9">
-        <v>-3423514</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3259075</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>13060432</v>
+        <v>12018408</v>
       </c>
       <c r="F21" s="13">
-        <v>12018408</v>
+        <v>11705509</v>
       </c>
       <c r="G21" s="13">
-        <v>11705509</v>
+        <v>14731953</v>
       </c>
       <c r="H21" s="13">
-        <v>14731953</v>
+        <v>16907372</v>
       </c>
       <c r="I21" s="13">
-        <v>16907372</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14156498</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1065,29 +1100,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>13060432</v>
+        <v>12018408</v>
       </c>
       <c r="F23" s="13">
-        <v>12018408</v>
+        <v>11705509</v>
       </c>
       <c r="G23" s="13">
-        <v>11705509</v>
+        <v>14731953</v>
       </c>
       <c r="H23" s="13">
-        <v>14731953</v>
+        <v>16907372</v>
       </c>
       <c r="I23" s="13">
-        <v>16907372</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14156498</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1097,7 +1132,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1107,7 +1142,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1117,7 +1152,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1139,7 +1174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1149,7 +1184,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1158,22 +1193,22 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>376337</v>
+        <v>651130</v>
       </c>
       <c r="F29" s="9">
-        <v>651130</v>
+        <v>214562</v>
       </c>
       <c r="G29" s="9">
-        <v>214562</v>
+        <v>124764</v>
       </c>
       <c r="H29" s="9">
-        <v>124764</v>
+        <v>223408</v>
       </c>
       <c r="I29" s="9">
-        <v>223408</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>469113</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -1182,22 +1217,22 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>493379</v>
+        <v>597035</v>
       </c>
       <c r="F30" s="11">
-        <v>597035</v>
+        <v>509324</v>
       </c>
       <c r="G30" s="11">
-        <v>509324</v>
+        <v>552216</v>
       </c>
       <c r="H30" s="11">
-        <v>552216</v>
+        <v>441310</v>
       </c>
       <c r="I30" s="11">
-        <v>441310</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>446375</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1206,22 +1241,22 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>2231077</v>
+        <v>2481931</v>
       </c>
       <c r="F31" s="9">
-        <v>2481931</v>
+        <v>2197016</v>
       </c>
       <c r="G31" s="9">
-        <v>2197016</v>
+        <v>2043825</v>
       </c>
       <c r="H31" s="9">
-        <v>2043825</v>
+        <v>1496762</v>
       </c>
       <c r="I31" s="9">
-        <v>1496762</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1757173</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1230,22 +1265,22 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>1720278</v>
+        <v>1600986</v>
       </c>
       <c r="F32" s="11">
-        <v>1600986</v>
+        <v>2151677</v>
       </c>
       <c r="G32" s="11">
-        <v>2151677</v>
+        <v>1634737</v>
       </c>
       <c r="H32" s="11">
-        <v>1634737</v>
+        <v>1981777</v>
       </c>
       <c r="I32" s="11">
-        <v>1981777</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1312689</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>30</v>
       </c>
@@ -1254,22 +1289,22 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>1578612</v>
+        <v>2443409</v>
       </c>
       <c r="F33" s="9">
-        <v>2443409</v>
+        <v>1549952</v>
       </c>
       <c r="G33" s="9">
-        <v>1549952</v>
+        <v>1707330</v>
       </c>
       <c r="H33" s="9">
-        <v>1707330</v>
+        <v>1427049</v>
       </c>
       <c r="I33" s="9">
-        <v>1427049</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2448746</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>31</v>
       </c>
@@ -1278,22 +1313,22 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>1688709</v>
+        <v>2584806</v>
       </c>
       <c r="F34" s="11">
-        <v>2584806</v>
+        <v>1258955</v>
       </c>
       <c r="G34" s="11">
-        <v>1258955</v>
+        <v>792425</v>
       </c>
       <c r="H34" s="11">
-        <v>792425</v>
+        <v>1223323</v>
       </c>
       <c r="I34" s="11">
-        <v>1223323</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1936484</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>32</v>
       </c>
@@ -1302,44 +1337,44 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>1802878</v>
+        <v>2220042</v>
       </c>
       <c r="F35" s="9">
-        <v>2220042</v>
+        <v>1257670</v>
       </c>
       <c r="G35" s="9">
-        <v>1257670</v>
+        <v>149039</v>
       </c>
       <c r="H35" s="9">
-        <v>149039</v>
+        <v>1951495</v>
       </c>
       <c r="I35" s="9">
-        <v>1951495</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2035847</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>9891270</v>
+        <v>12579339</v>
       </c>
       <c r="F36" s="13">
-        <v>12579339</v>
+        <v>9139156</v>
       </c>
       <c r="G36" s="13">
-        <v>9139156</v>
+        <v>7004336</v>
       </c>
       <c r="H36" s="13">
-        <v>7004336</v>
+        <v>8745124</v>
       </c>
       <c r="I36" s="13">
-        <v>8745124</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10406427</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1349,7 +1384,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1359,7 +1394,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1369,7 +1404,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>33</v>
       </c>
@@ -1391,7 +1426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1401,7 +1436,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>24</v>
       </c>
@@ -1410,22 +1445,22 @@
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
-        <v>1333781</v>
+        <v>714364</v>
       </c>
       <c r="F42" s="9">
-        <v>714364</v>
+        <v>996404</v>
       </c>
       <c r="G42" s="9">
-        <v>996404</v>
+        <v>1142663</v>
       </c>
       <c r="H42" s="9">
-        <v>1142663</v>
+        <v>1281649</v>
       </c>
       <c r="I42" s="9">
-        <v>1281649</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>873844</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>26</v>
       </c>
@@ -1434,22 +1469,22 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>300800</v>
+        <v>100000</v>
       </c>
       <c r="F43" s="11">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="G43" s="11">
-        <v>300000</v>
+        <v>30000</v>
       </c>
       <c r="H43" s="11">
-        <v>30000</v>
+        <v>200000</v>
       </c>
       <c r="I43" s="11">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>28</v>
       </c>
@@ -1458,22 +1493,22 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
-        <v>3354724</v>
+        <v>3457225</v>
       </c>
       <c r="F44" s="9">
-        <v>3457225</v>
+        <v>4029620</v>
       </c>
       <c r="G44" s="9">
-        <v>4029620</v>
+        <v>2811928</v>
       </c>
       <c r="H44" s="9">
-        <v>2811928</v>
+        <v>3783008</v>
       </c>
       <c r="I44" s="9">
-        <v>3783008</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4419836</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>29</v>
       </c>
@@ -1482,22 +1517,22 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>2421800</v>
+        <v>3477507</v>
       </c>
       <c r="F45" s="11">
-        <v>3477507</v>
+        <v>2459967</v>
       </c>
       <c r="G45" s="11">
-        <v>2459967</v>
+        <v>3054293</v>
       </c>
       <c r="H45" s="11">
-        <v>3054293</v>
+        <v>2144239</v>
       </c>
       <c r="I45" s="11">
-        <v>2144239</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2951104</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>30</v>
       </c>
@@ -1506,22 +1541,22 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
-        <v>6530580</v>
+        <v>5201280</v>
       </c>
       <c r="F46" s="9">
-        <v>5201280</v>
+        <v>7620480</v>
       </c>
       <c r="G46" s="9">
-        <v>7620480</v>
+        <v>5160960</v>
       </c>
       <c r="H46" s="9">
-        <v>5160960</v>
+        <v>6853240</v>
       </c>
       <c r="I46" s="9">
-        <v>6853240</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6330240</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>31</v>
       </c>
@@ -1530,22 +1565,22 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>5882098</v>
+        <v>3860703</v>
       </c>
       <c r="F47" s="11">
-        <v>3860703</v>
+        <v>5013642</v>
       </c>
       <c r="G47" s="11">
-        <v>5013642</v>
+        <v>5366452</v>
       </c>
       <c r="H47" s="11">
-        <v>5366452</v>
+        <v>5460384</v>
       </c>
       <c r="I47" s="11">
-        <v>5460384</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6071996</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>32</v>
       </c>
@@ -1554,44 +1589,44 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
-        <v>5986218</v>
+        <v>4804350</v>
       </c>
       <c r="F48" s="9">
-        <v>4804350</v>
+        <v>4990061</v>
       </c>
       <c r="G48" s="9">
-        <v>4990061</v>
+        <v>7131202</v>
       </c>
       <c r="H48" s="9">
-        <v>7131202</v>
+        <v>5536388</v>
       </c>
       <c r="I48" s="9">
-        <v>5536388</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4789404</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>25810001</v>
+        <v>21615429</v>
       </c>
       <c r="F49" s="13">
-        <v>21615429</v>
+        <v>25410174</v>
       </c>
       <c r="G49" s="13">
-        <v>25410174</v>
+        <v>24697498</v>
       </c>
       <c r="H49" s="13">
-        <v>24697498</v>
+        <v>25258908</v>
       </c>
       <c r="I49" s="13">
-        <v>25258908</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25470424</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1601,7 +1636,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1611,7 +1646,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1621,7 +1656,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>34</v>
       </c>
@@ -1643,7 +1678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1653,7 +1688,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>24</v>
       </c>
@@ -1662,22 +1697,22 @@
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
-        <v>1058988</v>
+        <v>1150932</v>
       </c>
       <c r="F55" s="9">
-        <v>1150932</v>
+        <v>1048228</v>
       </c>
       <c r="G55" s="9">
-        <v>1048228</v>
+        <v>1044019</v>
       </c>
       <c r="H55" s="9">
-        <v>1044019</v>
+        <v>1035944</v>
       </c>
       <c r="I55" s="9">
-        <v>1035944</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1066805</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>26</v>
       </c>
@@ -1686,22 +1721,22 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>197144</v>
+        <v>187711</v>
       </c>
       <c r="F56" s="11">
-        <v>187711</v>
+        <v>233108</v>
       </c>
       <c r="G56" s="11">
-        <v>233108</v>
+        <v>140906</v>
       </c>
       <c r="H56" s="11">
-        <v>140906</v>
+        <v>194935</v>
       </c>
       <c r="I56" s="11">
-        <v>194935</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>212049</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>28</v>
       </c>
@@ -1710,22 +1745,22 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>3103870</v>
+        <v>3742140</v>
       </c>
       <c r="F57" s="9">
-        <v>3742140</v>
+        <v>3610109</v>
       </c>
       <c r="G57" s="9">
-        <v>3610109</v>
+        <v>3358991</v>
       </c>
       <c r="H57" s="9">
-        <v>3358991</v>
+        <v>3522597</v>
       </c>
       <c r="I57" s="9">
-        <v>3522597</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3527020</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>29</v>
       </c>
@@ -1734,22 +1769,22 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>2541092</v>
+        <v>2926816</v>
       </c>
       <c r="F58" s="11">
-        <v>2926816</v>
+        <v>2788114</v>
       </c>
       <c r="G58" s="11">
-        <v>2788114</v>
+        <v>2707253</v>
       </c>
       <c r="H58" s="11">
-        <v>2707253</v>
+        <v>2813327</v>
       </c>
       <c r="I58" s="11">
-        <v>2813327</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2472601</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>30</v>
       </c>
@@ -1758,22 +1793,22 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>5665783</v>
+        <v>6094737</v>
       </c>
       <c r="F59" s="9">
-        <v>6094737</v>
+        <v>5490544</v>
       </c>
       <c r="G59" s="9">
-        <v>5490544</v>
+        <v>5441241</v>
       </c>
       <c r="H59" s="9">
-        <v>5441241</v>
+        <v>5831543</v>
       </c>
       <c r="I59" s="9">
-        <v>5831543</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5869071</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>31</v>
       </c>
@@ -1782,22 +1817,22 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>4986001</v>
+        <v>5186554</v>
       </c>
       <c r="F60" s="11">
-        <v>5186554</v>
+        <v>4651434</v>
       </c>
       <c r="G60" s="11">
-        <v>4651434</v>
+        <v>4935554</v>
       </c>
       <c r="H60" s="11">
-        <v>4935554</v>
+        <v>4747223</v>
       </c>
       <c r="I60" s="11">
-        <v>4747223</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5266905</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>32</v>
       </c>
@@ -1806,44 +1841,44 @@
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
-        <v>5569054</v>
+        <v>5766722</v>
       </c>
       <c r="F61" s="9">
-        <v>5766722</v>
+        <v>5060558</v>
       </c>
       <c r="G61" s="9">
-        <v>5060558</v>
+        <v>5328746</v>
       </c>
       <c r="H61" s="9">
-        <v>5328746</v>
+        <v>5452036</v>
       </c>
       <c r="I61" s="9">
-        <v>5452036</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5857199</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>23121932</v>
+        <v>25055612</v>
       </c>
       <c r="F62" s="13">
-        <v>25055612</v>
+        <v>22882095</v>
       </c>
       <c r="G62" s="13">
-        <v>22882095</v>
+        <v>22956710</v>
       </c>
       <c r="H62" s="13">
-        <v>22956710</v>
+        <v>23597605</v>
       </c>
       <c r="I62" s="13">
-        <v>23597605</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24271650</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1853,7 +1888,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1863,7 +1898,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1873,7 +1908,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>35</v>
       </c>
@@ -1895,7 +1930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1905,7 +1940,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>24</v>
       </c>
@@ -1914,22 +1949,22 @@
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
-        <v>651130</v>
+        <v>214562</v>
       </c>
       <c r="F68" s="9">
-        <v>214562</v>
+        <v>162738</v>
       </c>
       <c r="G68" s="9">
-        <v>162738</v>
+        <v>223408</v>
       </c>
       <c r="H68" s="9">
-        <v>223408</v>
+        <v>469113</v>
       </c>
       <c r="I68" s="9">
-        <v>469113</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>276152</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>26</v>
       </c>
@@ -1938,22 +1973,22 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>597035</v>
+        <v>509324</v>
       </c>
       <c r="F69" s="11">
-        <v>509324</v>
+        <v>576216</v>
       </c>
       <c r="G69" s="11">
-        <v>576216</v>
+        <v>441310</v>
       </c>
       <c r="H69" s="11">
-        <v>441310</v>
+        <v>446375</v>
       </c>
       <c r="I69" s="11">
-        <v>446375</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>268326</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>28</v>
       </c>
@@ -1962,22 +1997,22 @@
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
-        <v>2481931</v>
+        <v>2197016</v>
       </c>
       <c r="F70" s="9">
-        <v>2197016</v>
+        <v>2616527</v>
       </c>
       <c r="G70" s="9">
-        <v>2616527</v>
+        <v>1496762</v>
       </c>
       <c r="H70" s="9">
-        <v>1496762</v>
+        <v>1757173</v>
       </c>
       <c r="I70" s="9">
-        <v>1757173</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2649989</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>29</v>
       </c>
@@ -1986,22 +2021,22 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>1600986</v>
+        <v>2151677</v>
       </c>
       <c r="F71" s="11">
-        <v>2151677</v>
+        <v>1823530</v>
       </c>
       <c r="G71" s="11">
-        <v>1823530</v>
+        <v>1981777</v>
       </c>
       <c r="H71" s="11">
-        <v>1981777</v>
+        <v>1312689</v>
       </c>
       <c r="I71" s="11">
-        <v>1312689</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1791192</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>30</v>
       </c>
@@ -2010,22 +2045,22 @@
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
-        <v>2443409</v>
+        <v>1549952</v>
       </c>
       <c r="F72" s="9">
-        <v>1549952</v>
+        <v>3679888</v>
       </c>
       <c r="G72" s="9">
-        <v>3679888</v>
+        <v>1427049</v>
       </c>
       <c r="H72" s="9">
-        <v>1427049</v>
+        <v>2448746</v>
       </c>
       <c r="I72" s="9">
-        <v>2448746</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2909915</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>31</v>
       </c>
@@ -2034,22 +2069,22 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>2584806</v>
+        <v>1258955</v>
       </c>
       <c r="F73" s="11">
-        <v>1258955</v>
+        <v>1621163</v>
       </c>
       <c r="G73" s="11">
-        <v>1621163</v>
+        <v>1223323</v>
       </c>
       <c r="H73" s="11">
-        <v>1223323</v>
+        <v>1936484</v>
       </c>
       <c r="I73" s="11">
-        <v>1936484</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2741575</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>32</v>
       </c>
@@ -2058,44 +2093,44 @@
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9">
-        <v>2220042</v>
+        <v>1257670</v>
       </c>
       <c r="F74" s="9">
-        <v>1257670</v>
+        <v>1187173</v>
       </c>
       <c r="G74" s="9">
-        <v>1187173</v>
+        <v>1951495</v>
       </c>
       <c r="H74" s="9">
-        <v>1951495</v>
+        <v>2035847</v>
       </c>
       <c r="I74" s="9">
-        <v>2035847</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>968052</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>12579339</v>
+        <v>9139156</v>
       </c>
       <c r="F75" s="13">
-        <v>9139156</v>
+        <v>11667235</v>
       </c>
       <c r="G75" s="13">
-        <v>11667235</v>
+        <v>8745124</v>
       </c>
       <c r="H75" s="13">
-        <v>8745124</v>
+        <v>10406427</v>
       </c>
       <c r="I75" s="13">
-        <v>10406427</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11605201</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2105,7 +2140,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2115,7 +2150,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2125,7 +2160,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>36</v>
       </c>
@@ -2147,7 +2182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2157,7 +2192,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>24</v>
       </c>
@@ -2166,22 +2201,22 @@
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9">
-        <v>547616</v>
+        <v>905205</v>
       </c>
       <c r="F81" s="9">
-        <v>905205</v>
+        <v>348712</v>
       </c>
       <c r="G81" s="9">
-        <v>348712</v>
+        <v>243723</v>
       </c>
       <c r="H81" s="9">
-        <v>243723</v>
+        <v>391730</v>
       </c>
       <c r="I81" s="9">
-        <v>391730</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>741001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>26</v>
       </c>
@@ -2190,22 +2225,22 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>71819</v>
+        <v>97214</v>
       </c>
       <c r="F82" s="11">
-        <v>97214</v>
+        <v>61064</v>
       </c>
       <c r="G82" s="11">
-        <v>61064</v>
+        <v>82433</v>
       </c>
       <c r="H82" s="11">
-        <v>82433</v>
+        <v>58046</v>
       </c>
       <c r="I82" s="11">
-        <v>58046</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>50278</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>28</v>
       </c>
@@ -2214,22 +2249,22 @@
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
-        <v>1023285</v>
+        <v>1157686</v>
       </c>
       <c r="F83" s="9">
-        <v>1157686</v>
+        <v>738585</v>
       </c>
       <c r="G83" s="9">
-        <v>738585</v>
+        <v>1127888</v>
       </c>
       <c r="H83" s="9">
-        <v>1127888</v>
+        <v>1288099</v>
       </c>
       <c r="I83" s="9">
-        <v>1288099</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1321840</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>29</v>
       </c>
@@ -2238,22 +2273,22 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>570559</v>
+        <v>523649</v>
       </c>
       <c r="F84" s="11">
-        <v>523649</v>
+        <v>702704</v>
       </c>
       <c r="G84" s="11">
-        <v>702704</v>
+        <v>674950</v>
       </c>
       <c r="H84" s="11">
-        <v>674950</v>
+        <v>839540</v>
       </c>
       <c r="I84" s="11">
-        <v>839540</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>380786</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>30</v>
       </c>
@@ -2262,22 +2297,22 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>1040572</v>
+        <v>884135</v>
       </c>
       <c r="F85" s="9">
-        <v>884135</v>
+        <v>677596</v>
       </c>
       <c r="G85" s="9">
-        <v>677596</v>
+        <v>857865</v>
       </c>
       <c r="H85" s="9">
-        <v>857865</v>
+        <v>692018</v>
       </c>
       <c r="I85" s="9">
-        <v>692018</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1099762</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>31</v>
       </c>
@@ -2286,22 +2321,22 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>819614</v>
+        <v>1074929</v>
       </c>
       <c r="F86" s="11">
-        <v>1074929</v>
+        <v>576114</v>
       </c>
       <c r="G86" s="11">
-        <v>576114</v>
+        <v>451413</v>
       </c>
       <c r="H86" s="11">
-        <v>451413</v>
+        <v>689820</v>
       </c>
       <c r="I86" s="11">
-        <v>689820</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1048412</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>32</v>
       </c>
@@ -2310,44 +2345,44 @@
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
-        <v>416706</v>
+        <v>545199</v>
       </c>
       <c r="F87" s="9">
-        <v>545199</v>
+        <v>315006</v>
       </c>
       <c r="G87" s="9">
-        <v>315006</v>
+        <v>50273</v>
       </c>
       <c r="H87" s="9">
-        <v>50273</v>
+        <v>838319</v>
       </c>
       <c r="I87" s="9">
-        <v>838319</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1430744</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>4490171</v>
+        <v>5188017</v>
       </c>
       <c r="F88" s="13">
-        <v>5188017</v>
+        <v>3419781</v>
       </c>
       <c r="G88" s="13">
-        <v>3419781</v>
+        <v>3488545</v>
       </c>
       <c r="H88" s="13">
-        <v>3488545</v>
+        <v>4797572</v>
       </c>
       <c r="I88" s="13">
-        <v>4797572</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6072823</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2357,7 +2392,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2367,7 +2402,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2377,7 +2412,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>38</v>
       </c>
@@ -2399,7 +2434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2409,7 +2444,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>24</v>
       </c>
@@ -2418,22 +2453,22 @@
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9">
-        <v>1839529</v>
+        <v>1032537</v>
       </c>
       <c r="F94" s="9">
-        <v>1032537</v>
+        <v>1584197</v>
       </c>
       <c r="G94" s="9">
-        <v>1584197</v>
+        <v>1783854</v>
       </c>
       <c r="H94" s="9">
-        <v>1783854</v>
+        <v>2134422</v>
       </c>
       <c r="I94" s="9">
-        <v>2134422</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1492495</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>26</v>
       </c>
@@ -2442,22 +2477,22 @@
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>63089</v>
+        <v>10166</v>
       </c>
       <c r="F95" s="11">
-        <v>10166</v>
+        <v>53409</v>
       </c>
       <c r="G95" s="11">
-        <v>53409</v>
+        <v>1427</v>
       </c>
       <c r="H95" s="11">
-        <v>1427</v>
+        <v>30361</v>
       </c>
       <c r="I95" s="11">
-        <v>30361</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12060</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>28</v>
       </c>
@@ -2466,22 +2501,22 @@
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9">
-        <v>1307705</v>
+        <v>1457177</v>
       </c>
       <c r="F96" s="9">
-        <v>1457177</v>
+        <v>2007735</v>
       </c>
       <c r="G96" s="9">
-        <v>2007735</v>
+        <v>1964523</v>
       </c>
       <c r="H96" s="9">
-        <v>1964523</v>
+        <v>2147720</v>
       </c>
       <c r="I96" s="9">
-        <v>2147720</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2402300</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>29</v>
       </c>
@@ -2490,22 +2525,22 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>872283</v>
+        <v>1412668</v>
       </c>
       <c r="F97" s="11">
-        <v>1412668</v>
+        <v>1069172</v>
       </c>
       <c r="G97" s="11">
-        <v>1069172</v>
+        <v>1312110</v>
       </c>
       <c r="H97" s="11">
-        <v>1312110</v>
+        <v>947187</v>
       </c>
       <c r="I97" s="11">
-        <v>947187</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1388010</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>30</v>
       </c>
@@ -2514,22 +2549,22 @@
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
-        <v>2609106</v>
+        <v>2709585</v>
       </c>
       <c r="F98" s="9">
-        <v>2709585</v>
+        <v>3718861</v>
       </c>
       <c r="G98" s="9">
-        <v>3718861</v>
+        <v>2759513</v>
       </c>
       <c r="H98" s="9">
-        <v>2759513</v>
+        <v>3669173</v>
       </c>
       <c r="I98" s="9">
-        <v>3669173</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3507841</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>31</v>
       </c>
@@ -2538,22 +2573,22 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>2478753</v>
+        <v>1650716</v>
       </c>
       <c r="F99" s="11">
-        <v>1650716</v>
+        <v>2657063</v>
       </c>
       <c r="G99" s="11">
-        <v>2657063</v>
+        <v>2824066</v>
       </c>
       <c r="H99" s="11">
-        <v>2824066</v>
+        <v>2886121</v>
       </c>
       <c r="I99" s="11">
-        <v>2886121</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3094546</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>32</v>
       </c>
@@ -2562,44 +2597,44 @@
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9">
-        <v>1467598</v>
+        <v>1344598</v>
       </c>
       <c r="F100" s="9">
-        <v>1344598</v>
+        <v>1538195</v>
       </c>
       <c r="G100" s="9">
-        <v>1538195</v>
+        <v>2895445</v>
       </c>
       <c r="H100" s="9">
-        <v>2895445</v>
+        <v>2431210</v>
       </c>
       <c r="I100" s="9">
-        <v>2431210</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1675651</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
-        <v>10638063</v>
+        <v>9617447</v>
       </c>
       <c r="F101" s="13">
-        <v>9617447</v>
+        <v>12628632</v>
       </c>
       <c r="G101" s="13">
-        <v>12628632</v>
+        <v>13540938</v>
       </c>
       <c r="H101" s="13">
-        <v>13540938</v>
+        <v>14246194</v>
       </c>
       <c r="I101" s="13">
-        <v>14246194</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13572903</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2609,7 +2644,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2619,7 +2654,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2629,7 +2664,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>39</v>
       </c>
@@ -2651,7 +2686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2661,7 +2696,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>24</v>
       </c>
@@ -2670,22 +2705,22 @@
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
-        <v>1481940</v>
+        <v>1589030</v>
       </c>
       <c r="F107" s="9">
-        <v>1589030</v>
+        <v>1641944</v>
       </c>
       <c r="G107" s="9">
-        <v>1641944</v>
+        <v>1635847</v>
       </c>
       <c r="H107" s="9">
-        <v>1635847</v>
+        <v>1785151</v>
       </c>
       <c r="I107" s="9">
-        <v>1785151</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1717570</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>26</v>
       </c>
@@ -2694,22 +2729,22 @@
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
-        <v>37694</v>
+        <v>46315</v>
       </c>
       <c r="F108" s="11">
-        <v>46315</v>
+        <v>30783</v>
       </c>
       <c r="G108" s="11">
-        <v>30783</v>
+        <v>25814</v>
       </c>
       <c r="H108" s="11">
-        <v>25814</v>
+        <v>38129</v>
       </c>
       <c r="I108" s="11">
-        <v>38129</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32785</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>28</v>
       </c>
@@ -2718,22 +2753,22 @@
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>1173304</v>
+        <v>1876278</v>
       </c>
       <c r="F109" s="9">
-        <v>1876278</v>
+        <v>1328288</v>
       </c>
       <c r="G109" s="9">
-        <v>1328288</v>
+        <v>1804312</v>
       </c>
       <c r="H109" s="9">
-        <v>1804312</v>
+        <v>2113979</v>
       </c>
       <c r="I109" s="9">
-        <v>2113979</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1938689</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>29</v>
       </c>
@@ -2742,22 +2777,22 @@
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
-        <v>919193</v>
+        <v>1233613</v>
       </c>
       <c r="F110" s="11">
-        <v>1233613</v>
+        <v>1027927</v>
       </c>
       <c r="G110" s="11">
-        <v>1027927</v>
+        <v>1147520</v>
       </c>
       <c r="H110" s="11">
-        <v>1147520</v>
+        <v>1405941</v>
       </c>
       <c r="I110" s="11">
-        <v>1405941</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>830106</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>30</v>
       </c>
@@ -2766,22 +2801,22 @@
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
-        <v>2765543</v>
+        <v>2916124</v>
       </c>
       <c r="F111" s="9">
-        <v>2916124</v>
+        <v>2902273</v>
       </c>
       <c r="G111" s="9">
-        <v>2902273</v>
+        <v>2925360</v>
       </c>
       <c r="H111" s="9">
-        <v>2925360</v>
+        <v>3261429</v>
       </c>
       <c r="I111" s="9">
-        <v>3261429</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2572113</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>31</v>
       </c>
@@ -2790,22 +2825,22 @@
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
-        <v>2223438</v>
+        <v>2149531</v>
       </c>
       <c r="F112" s="11">
-        <v>2149531</v>
+        <v>2397711</v>
       </c>
       <c r="G112" s="11">
-        <v>2397711</v>
+        <v>2585659</v>
       </c>
       <c r="H112" s="11">
-        <v>2585659</v>
+        <v>2527529</v>
       </c>
       <c r="I112" s="11">
-        <v>2527529</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2360058</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>32</v>
       </c>
@@ -2814,44 +2849,44 @@
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
-        <v>1339105</v>
+        <v>1574791</v>
       </c>
       <c r="F113" s="9">
-        <v>1574791</v>
+        <v>1528202</v>
       </c>
       <c r="G113" s="9">
-        <v>1528202</v>
+        <v>2107399</v>
       </c>
       <c r="H113" s="9">
-        <v>2107399</v>
+        <v>1838785</v>
       </c>
       <c r="I113" s="9">
-        <v>1838785</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2625019</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
-        <v>9940217</v>
+        <v>11385682</v>
       </c>
       <c r="F114" s="13">
-        <v>11385682</v>
+        <v>10857128</v>
       </c>
       <c r="G114" s="13">
-        <v>10857128</v>
+        <v>12231911</v>
       </c>
       <c r="H114" s="13">
-        <v>12231911</v>
+        <v>12970943</v>
       </c>
       <c r="I114" s="13">
-        <v>12970943</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12076340</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2861,7 +2896,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2871,7 +2906,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2881,7 +2916,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>40</v>
       </c>
@@ -2903,7 +2938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2913,7 +2948,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>24</v>
       </c>
@@ -2922,22 +2957,22 @@
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9">
-        <v>905205</v>
+        <v>348712</v>
       </c>
       <c r="F120" s="9">
-        <v>348712</v>
+        <v>290965</v>
       </c>
       <c r="G120" s="9">
-        <v>290965</v>
+        <v>391730</v>
       </c>
       <c r="H120" s="9">
-        <v>391730</v>
+        <v>741001</v>
       </c>
       <c r="I120" s="9">
-        <v>741001</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>515926</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>26</v>
       </c>
@@ -2946,22 +2981,22 @@
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
-        <v>97214</v>
+        <v>61064</v>
       </c>
       <c r="F121" s="11">
-        <v>61064</v>
+        <v>83690</v>
       </c>
       <c r="G121" s="11">
-        <v>83690</v>
+        <v>58046</v>
       </c>
       <c r="H121" s="11">
-        <v>58046</v>
+        <v>50278</v>
       </c>
       <c r="I121" s="11">
-        <v>50278</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>29553</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>28</v>
       </c>
@@ -2970,22 +3005,22 @@
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9">
-        <v>1157686</v>
+        <v>738585</v>
       </c>
       <c r="F122" s="9">
-        <v>738585</v>
+        <v>1418032</v>
       </c>
       <c r="G122" s="9">
-        <v>1418032</v>
+        <v>1288099</v>
       </c>
       <c r="H122" s="9">
-        <v>1288099</v>
+        <v>1321840</v>
       </c>
       <c r="I122" s="9">
-        <v>1321840</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1785451</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>29</v>
       </c>
@@ -2994,22 +3029,22 @@
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
-        <v>523649</v>
+        <v>702704</v>
       </c>
       <c r="F123" s="11">
-        <v>702704</v>
+        <v>743949</v>
       </c>
       <c r="G123" s="11">
-        <v>743949</v>
+        <v>839540</v>
       </c>
       <c r="H123" s="11">
-        <v>839540</v>
+        <v>380786</v>
       </c>
       <c r="I123" s="11">
-        <v>380786</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+        <v>938690</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>30</v>
       </c>
@@ -3018,22 +3053,22 @@
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9">
-        <v>884135</v>
+        <v>677596</v>
       </c>
       <c r="F124" s="9">
-        <v>677596</v>
+        <v>1494184</v>
       </c>
       <c r="G124" s="9">
-        <v>1494184</v>
+        <v>692018</v>
       </c>
       <c r="H124" s="9">
-        <v>692018</v>
+        <v>1099762</v>
       </c>
       <c r="I124" s="9">
-        <v>1099762</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2035489</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>31</v>
       </c>
@@ -3042,22 +3077,22 @@
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
-        <v>1074929</v>
+        <v>576114</v>
       </c>
       <c r="F125" s="11">
-        <v>576114</v>
+        <v>835466</v>
       </c>
       <c r="G125" s="11">
-        <v>835466</v>
+        <v>689820</v>
       </c>
       <c r="H125" s="11">
-        <v>689820</v>
+        <v>1048412</v>
       </c>
       <c r="I125" s="11">
-        <v>1048412</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1782900</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>32</v>
       </c>
@@ -3066,44 +3101,44 @@
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9">
-        <v>545199</v>
+        <v>315006</v>
       </c>
       <c r="F126" s="9">
-        <v>315006</v>
+        <v>324999</v>
       </c>
       <c r="G126" s="9">
-        <v>324999</v>
+        <v>838319</v>
       </c>
       <c r="H126" s="9">
-        <v>838319</v>
+        <v>1430744</v>
       </c>
       <c r="I126" s="9">
-        <v>1430744</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>481376</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
-        <v>5188017</v>
+        <v>3419781</v>
       </c>
       <c r="F127" s="13">
-        <v>3419781</v>
+        <v>5191285</v>
       </c>
       <c r="G127" s="13">
-        <v>5191285</v>
+        <v>4797572</v>
       </c>
       <c r="H127" s="13">
-        <v>4797572</v>
+        <v>6072823</v>
       </c>
       <c r="I127" s="13">
-        <v>6072823</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7569385</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3113,7 +3148,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3123,7 +3158,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3133,7 +3168,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>41</v>
       </c>
@@ -3155,7 +3190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3165,7 +3200,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>24</v>
       </c>
@@ -3174,22 +3209,22 @@
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
-        <v>1455121</v>
+        <v>1390206</v>
       </c>
       <c r="F133" s="9">
-        <v>1390206</v>
+        <v>1625227</v>
       </c>
       <c r="G133" s="9">
-        <v>1625227</v>
+        <v>1953472</v>
       </c>
       <c r="H133" s="9">
-        <v>1953472</v>
+        <v>1753429</v>
       </c>
       <c r="I133" s="9">
-        <v>1753429</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1579579</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>26</v>
       </c>
@@ -3198,22 +3233,22 @@
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
-        <v>145566</v>
+        <v>162828</v>
       </c>
       <c r="F134" s="11">
-        <v>162828</v>
+        <v>119892</v>
       </c>
       <c r="G134" s="11">
-        <v>119892</v>
+        <v>149277</v>
       </c>
       <c r="H134" s="11">
-        <v>149277</v>
+        <v>131531</v>
       </c>
       <c r="I134" s="11">
-        <v>131531</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+        <v>112636</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>28</v>
       </c>
@@ -3222,22 +3257,22 @@
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
-        <v>458651</v>
+        <v>466446</v>
       </c>
       <c r="F135" s="9">
-        <v>466446</v>
+        <v>336176</v>
       </c>
       <c r="G135" s="9">
-        <v>336176</v>
+        <v>551852</v>
       </c>
       <c r="H135" s="9">
-        <v>551852</v>
+        <v>860590</v>
       </c>
       <c r="I135" s="9">
-        <v>860590</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+        <v>752254</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>29</v>
       </c>
@@ -3246,22 +3281,22 @@
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
-        <v>331667</v>
+        <v>327079</v>
       </c>
       <c r="F136" s="11">
-        <v>327079</v>
+        <v>326584</v>
       </c>
       <c r="G136" s="11">
-        <v>326584</v>
+        <v>412880</v>
       </c>
       <c r="H136" s="11">
-        <v>412880</v>
+        <v>423630</v>
       </c>
       <c r="I136" s="11">
-        <v>423630</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+        <v>290081</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>30</v>
       </c>
@@ -3270,22 +3305,22 @@
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
-        <v>659169</v>
+        <v>361845</v>
       </c>
       <c r="F137" s="9">
-        <v>361845</v>
+        <v>437172</v>
       </c>
       <c r="G137" s="9">
-        <v>437172</v>
+        <v>502460</v>
       </c>
       <c r="H137" s="9">
-        <v>502460</v>
+        <v>484929</v>
       </c>
       <c r="I137" s="9">
-        <v>484929</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+        <v>449112</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>31</v>
       </c>
@@ -3294,22 +3329,22 @@
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>485349</v>
+        <v>415864</v>
       </c>
       <c r="F138" s="11">
-        <v>415864</v>
+        <v>457613</v>
       </c>
       <c r="G138" s="11">
-        <v>457613</v>
+        <v>569660</v>
       </c>
       <c r="H138" s="11">
-        <v>569660</v>
+        <v>563890</v>
       </c>
       <c r="I138" s="11">
-        <v>563890</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>541400</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>32</v>
       </c>
@@ -3318,22 +3353,22 @@
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
-        <v>231134</v>
+        <v>245580</v>
       </c>
       <c r="F139" s="9">
-        <v>245580</v>
+        <v>250468</v>
       </c>
       <c r="G139" s="9">
-        <v>250468</v>
+        <v>337314</v>
       </c>
       <c r="H139" s="9">
-        <v>337314</v>
+        <v>429578</v>
       </c>
       <c r="I139" s="9">
-        <v>429578</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+        <v>702776</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3343,7 +3378,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3353,7 +3388,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3363,7 +3398,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>44</v>
       </c>
@@ -3385,7 +3420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3395,7 +3430,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>24</v>
       </c>
@@ -3404,22 +3439,22 @@
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
-        <v>1379184</v>
+        <v>1445393</v>
       </c>
       <c r="F145" s="9">
-        <v>1445393</v>
+        <v>1589914</v>
       </c>
       <c r="G145" s="9">
-        <v>1589914</v>
+        <v>1561137</v>
       </c>
       <c r="H145" s="9">
-        <v>1561137</v>
+        <v>1665372</v>
       </c>
       <c r="I145" s="9">
-        <v>1665372</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1707965</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>26</v>
       </c>
@@ -3428,22 +3463,22 @@
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
-        <v>209737</v>
+        <v>101660</v>
       </c>
       <c r="F146" s="11">
-        <v>101660</v>
+        <v>178030</v>
       </c>
       <c r="G146" s="11">
-        <v>178030</v>
+        <v>47567</v>
       </c>
       <c r="H146" s="11">
-        <v>47567</v>
+        <v>151805</v>
       </c>
       <c r="I146" s="11">
-        <v>151805</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+        <v>354706</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>28</v>
       </c>
@@ -3452,22 +3487,22 @@
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
-        <v>389810</v>
+        <v>421487</v>
       </c>
       <c r="F147" s="9">
-        <v>421487</v>
+        <v>498244</v>
       </c>
       <c r="G147" s="9">
-        <v>498244</v>
+        <v>698639</v>
       </c>
       <c r="H147" s="9">
-        <v>698639</v>
+        <v>567728</v>
       </c>
       <c r="I147" s="9">
-        <v>567728</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+        <v>543527</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>29</v>
       </c>
@@ -3476,22 +3511,22 @@
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
-        <v>360180</v>
+        <v>406230</v>
       </c>
       <c r="F148" s="11">
-        <v>406230</v>
+        <v>434629</v>
       </c>
       <c r="G148" s="11">
-        <v>434629</v>
+        <v>429595</v>
       </c>
       <c r="H148" s="11">
-        <v>429595</v>
+        <v>441736</v>
       </c>
       <c r="I148" s="11">
-        <v>441736</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>470336</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>30</v>
       </c>
@@ -3500,22 +3535,22 @@
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9">
-        <v>399521</v>
+        <v>520946</v>
       </c>
       <c r="F149" s="9">
-        <v>520946</v>
+        <v>488009</v>
       </c>
       <c r="G149" s="9">
-        <v>488009</v>
+        <v>534690</v>
       </c>
       <c r="H149" s="9">
-        <v>534690</v>
+        <v>535392</v>
       </c>
       <c r="I149" s="9">
-        <v>535392</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+        <v>554140</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>31</v>
       </c>
@@ -3524,22 +3559,22 @@
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11">
-        <v>421406</v>
+        <v>427569</v>
       </c>
       <c r="F150" s="11">
-        <v>427569</v>
+        <v>529967</v>
       </c>
       <c r="G150" s="11">
-        <v>529967</v>
+        <v>526245</v>
       </c>
       <c r="H150" s="11">
-        <v>526245</v>
+        <v>528556</v>
       </c>
       <c r="I150" s="11">
-        <v>528556</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+        <v>509642</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>32</v>
       </c>
@@ -3548,22 +3583,22 @@
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9">
-        <v>245163</v>
+        <v>279871</v>
       </c>
       <c r="F151" s="9">
-        <v>279871</v>
+        <v>308252</v>
       </c>
       <c r="G151" s="9">
-        <v>308252</v>
+        <v>406025</v>
       </c>
       <c r="H151" s="9">
-        <v>406025</v>
+        <v>439133</v>
       </c>
       <c r="I151" s="9">
-        <v>439133</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+        <v>349866</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3573,7 +3608,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3583,7 +3618,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3593,7 +3628,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>45</v>
       </c>
@@ -3615,7 +3650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3625,7 +3660,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>24</v>
       </c>
@@ -3634,22 +3669,22 @@
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9">
-        <v>1399393</v>
+        <v>1380646</v>
       </c>
       <c r="F157" s="9">
-        <v>1380646</v>
+        <v>1566400</v>
       </c>
       <c r="G157" s="9">
-        <v>1566400</v>
+        <v>1566875</v>
       </c>
       <c r="H157" s="9">
-        <v>1566875</v>
+        <v>1723212</v>
       </c>
       <c r="I157" s="9">
-        <v>1723212</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1610013</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>26</v>
       </c>
@@ -3658,22 +3693,22 @@
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11">
-        <v>191200</v>
+        <v>246736</v>
       </c>
       <c r="F158" s="11">
-        <v>246736</v>
+        <v>132055</v>
       </c>
       <c r="G158" s="11">
-        <v>132055</v>
+        <v>183200</v>
       </c>
       <c r="H158" s="11">
-        <v>183200</v>
+        <v>195599</v>
       </c>
       <c r="I158" s="11">
-        <v>195599</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+        <v>154610</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>28</v>
       </c>
@@ -3682,22 +3717,22 @@
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9">
-        <v>378013</v>
+        <v>501392</v>
       </c>
       <c r="F159" s="9">
-        <v>501392</v>
+        <v>367936</v>
       </c>
       <c r="G159" s="9">
-        <v>367936</v>
+        <v>537159</v>
       </c>
       <c r="H159" s="9">
-        <v>537159</v>
+        <v>600119</v>
       </c>
       <c r="I159" s="9">
-        <v>600119</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+        <v>549668</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>29</v>
       </c>
@@ -3706,22 +3741,22 @@
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11">
-        <v>361731</v>
+        <v>421486</v>
       </c>
       <c r="F160" s="11">
-        <v>421486</v>
+        <v>368682</v>
       </c>
       <c r="G160" s="11">
-        <v>368682</v>
+        <v>423869</v>
       </c>
       <c r="H160" s="11">
-        <v>423869</v>
+        <v>499743</v>
       </c>
       <c r="I160" s="11">
-        <v>499743</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+        <v>335722</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>30</v>
       </c>
@@ -3730,22 +3765,22 @@
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
-        <v>488113</v>
+        <v>478466</v>
       </c>
       <c r="F161" s="9">
-        <v>478466</v>
+        <v>528595</v>
       </c>
       <c r="G161" s="9">
-        <v>528595</v>
+        <v>537627</v>
       </c>
       <c r="H161" s="9">
-        <v>537627</v>
+        <v>559274</v>
       </c>
       <c r="I161" s="9">
-        <v>559274</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+        <v>438249</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>31</v>
       </c>
@@ -3754,22 +3789,22 @@
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
-        <v>445936</v>
+        <v>414443</v>
       </c>
       <c r="F162" s="11">
-        <v>414443</v>
+        <v>515478</v>
       </c>
       <c r="G162" s="11">
-        <v>515478</v>
+        <v>523884</v>
       </c>
       <c r="H162" s="11">
-        <v>523884</v>
+        <v>532423</v>
       </c>
       <c r="I162" s="11">
-        <v>532423</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+        <v>448092</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>32</v>
       </c>
@@ -3778,22 +3813,22 @@
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9">
-        <v>240455</v>
+        <v>273083</v>
       </c>
       <c r="F163" s="9">
-        <v>273083</v>
+        <v>301983</v>
       </c>
       <c r="G163" s="9">
-        <v>301983</v>
+        <v>395477</v>
       </c>
       <c r="H163" s="9">
-        <v>395477</v>
+        <v>337266</v>
       </c>
       <c r="I163" s="9">
-        <v>337266</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+        <v>448170</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3803,7 +3838,7 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3813,7 +3848,7 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -3823,7 +3858,7 @@
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B167" s="7" t="s">
         <v>46</v>
       </c>
@@ -3845,7 +3880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -3855,7 +3890,7 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>24</v>
       </c>
@@ -3864,22 +3899,22 @@
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9">
-        <v>1390206</v>
+        <v>1625227</v>
       </c>
       <c r="F169" s="9">
-        <v>1625227</v>
+        <v>1787935</v>
       </c>
       <c r="G169" s="9">
-        <v>1787935</v>
+        <v>1753429</v>
       </c>
       <c r="H169" s="9">
-        <v>1753429</v>
+        <v>1579579</v>
       </c>
       <c r="I169" s="9">
-        <v>1579579</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1868268</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>26</v>
       </c>
@@ -3888,22 +3923,22 @@
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="11">
-        <v>162828</v>
+        <v>119892</v>
       </c>
       <c r="F170" s="11">
-        <v>119892</v>
+        <v>145241</v>
       </c>
       <c r="G170" s="11">
-        <v>145241</v>
+        <v>131531</v>
       </c>
       <c r="H170" s="11">
-        <v>131531</v>
+        <v>112636</v>
       </c>
       <c r="I170" s="11">
-        <v>112636</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+        <v>110138</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>28</v>
       </c>
@@ -3912,22 +3947,22 @@
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9">
-        <v>466446</v>
+        <v>336176</v>
       </c>
       <c r="F171" s="9">
-        <v>336176</v>
+        <v>541952</v>
       </c>
       <c r="G171" s="9">
-        <v>541952</v>
+        <v>860590</v>
       </c>
       <c r="H171" s="9">
-        <v>860590</v>
+        <v>752254</v>
       </c>
       <c r="I171" s="9">
-        <v>752254</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+        <v>673758</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>29</v>
       </c>
@@ -3936,22 +3971,22 @@
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="11">
-        <v>327079</v>
+        <v>326584</v>
       </c>
       <c r="F172" s="11">
-        <v>326584</v>
+        <v>407972</v>
       </c>
       <c r="G172" s="11">
-        <v>407972</v>
+        <v>423630</v>
       </c>
       <c r="H172" s="11">
-        <v>423630</v>
+        <v>290081</v>
       </c>
       <c r="I172" s="11">
-        <v>290081</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+        <v>524059</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>30</v>
       </c>
@@ -3960,22 +3995,22 @@
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9">
-        <v>361845</v>
+        <v>437172</v>
       </c>
       <c r="F173" s="9">
-        <v>437172</v>
+        <v>406041</v>
       </c>
       <c r="G173" s="9">
-        <v>406041</v>
+        <v>484929</v>
       </c>
       <c r="H173" s="9">
-        <v>484929</v>
+        <v>449112</v>
       </c>
       <c r="I173" s="9">
-        <v>449112</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+        <v>699501</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>31</v>
       </c>
@@ -3984,22 +4019,22 @@
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11">
-        <v>415864</v>
+        <v>457613</v>
       </c>
       <c r="F174" s="11">
-        <v>457613</v>
+        <v>515350</v>
       </c>
       <c r="G174" s="11">
-        <v>515350</v>
+        <v>563890</v>
       </c>
       <c r="H174" s="11">
-        <v>563890</v>
+        <v>541400</v>
       </c>
       <c r="I174" s="11">
-        <v>541400</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+        <v>650320</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>32</v>
       </c>
@@ -4008,22 +4043,22 @@
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9">
-        <v>245580</v>
+        <v>250468</v>
       </c>
       <c r="F175" s="9">
-        <v>250468</v>
+        <v>273759</v>
       </c>
       <c r="G175" s="9">
-        <v>273759</v>
+        <v>429578</v>
       </c>
       <c r="H175" s="9">
-        <v>429578</v>
+        <v>702776</v>
       </c>
       <c r="I175" s="9">
-        <v>702776</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+        <v>497263</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4033,7 +4068,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4043,7 +4078,7 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4053,7 +4088,7 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B179" s="7" t="s">
         <v>47</v>
       </c>
@@ -4075,7 +4110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4085,7 +4120,7 @@
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>48</v>
       </c>
@@ -4107,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>49</v>
       </c>
@@ -4129,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>50</v>
       </c>
@@ -4151,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>51</v>
       </c>
@@ -4173,95 +4208,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="9">
-        <v>88650</v>
+        <v>114207</v>
       </c>
       <c r="F185" s="9">
-        <v>114207</v>
+        <v>115665</v>
       </c>
       <c r="G185" s="9">
-        <v>115665</v>
+        <v>132921</v>
       </c>
       <c r="H185" s="9">
-        <v>132921</v>
+        <v>142649</v>
       </c>
       <c r="I185" s="9">
-        <v>142649</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+        <v>164953</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11">
-        <v>67047</v>
+        <v>108640</v>
       </c>
       <c r="F186" s="11">
-        <v>108640</v>
+        <v>151675</v>
       </c>
       <c r="G186" s="11">
-        <v>151675</v>
+        <v>97429</v>
       </c>
       <c r="H186" s="11">
-        <v>97429</v>
+        <v>143664</v>
       </c>
       <c r="I186" s="11">
-        <v>143664</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+        <v>82981</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="9">
-        <v>145271</v>
+        <v>119425</v>
       </c>
       <c r="F187" s="9">
-        <v>119425</v>
+        <v>153140</v>
       </c>
       <c r="G187" s="9">
-        <v>153140</v>
+        <v>193732</v>
       </c>
       <c r="H187" s="9">
-        <v>193732</v>
+        <v>77180</v>
       </c>
       <c r="I187" s="9">
-        <v>77180</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+        <v>161735</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11">
-        <v>762210</v>
+        <v>586882</v>
       </c>
       <c r="F188" s="11">
-        <v>586882</v>
+        <v>1017137</v>
       </c>
       <c r="G188" s="11">
-        <v>1017137</v>
+        <v>1386496</v>
       </c>
       <c r="H188" s="11">
-        <v>1386496</v>
+        <v>862910</v>
       </c>
       <c r="I188" s="11">
-        <v>862910</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1114938</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>56</v>
       </c>
@@ -4283,51 +4318,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11">
-        <v>227110</v>
+        <v>350914</v>
       </c>
       <c r="F190" s="11">
-        <v>350914</v>
+        <v>368960</v>
       </c>
       <c r="G190" s="11">
-        <v>368960</v>
+        <v>632704</v>
       </c>
       <c r="H190" s="11">
-        <v>632704</v>
+        <v>241476</v>
       </c>
       <c r="I190" s="11">
-        <v>241476</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+        <v>359197</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B191" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C191" s="15"/>
       <c r="D191" s="15"/>
       <c r="E191" s="15">
-        <v>1290288</v>
+        <v>1280068</v>
       </c>
       <c r="F191" s="15">
-        <v>1280068</v>
+        <v>1806577</v>
       </c>
       <c r="G191" s="15">
-        <v>1806577</v>
+        <v>2443282</v>
       </c>
       <c r="H191" s="15">
-        <v>2443282</v>
+        <v>1467879</v>
       </c>
       <c r="I191" s="15">
-        <v>1467879</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1883804</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4337,7 +4372,7 @@
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4347,7 +4382,7 @@
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4357,7 +4392,7 @@
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B195" s="7" t="s">
         <v>58</v>
       </c>
@@ -4369,7 +4404,7 @@
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -4379,7 +4414,7 @@
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
         <v>59</v>
       </c>
@@ -4393,7 +4428,7 @@
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="s">
         <v>61</v>
       </c>
@@ -4407,7 +4442,7 @@
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
         <v>63</v>
       </c>
@@ -4418,7 +4453,7 @@
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
         <v>64</v>
       </c>
@@ -4429,7 +4464,7 @@
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>64</v>
       </c>
@@ -4440,7 +4475,7 @@
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="s">
         <v>66</v>
       </c>
@@ -4451,7 +4486,7 @@
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B203" s="8" t="s">
         <v>67</v>
       </c>
@@ -4462,7 +4497,7 @@
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B204" s="10" t="s">
         <v>68</v>
       </c>
@@ -4473,7 +4508,7 @@
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
         <v>69</v>
       </c>
@@ -4484,7 +4519,7 @@
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
         <v>70</v>
       </c>
@@ -4495,7 +4530,7 @@
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
         <v>71</v>
       </c>
@@ -4506,7 +4541,7 @@
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="s">
         <v>69</v>
       </c>
@@ -4517,7 +4552,7 @@
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="8" t="s">
         <v>72</v>
       </c>

--- a/database/industries/lastic/pekerman/cost/quarterly.xlsx
+++ b/database/industries/lastic/pekerman/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekerman\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C002828B-5D82-4F7C-9DD7-BEB767AF46A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EC7FD3-0843-4E90-998E-5AFCA97CB84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="79">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -161,6 +176,9 @@
   </si>
   <si>
     <t>نرخ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>هزینه سربار</t>
@@ -695,16 +713,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I209"/>
+  <dimension ref="B1:N209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -713,8 +731,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -725,8 +748,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -737,8 +765,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -747,8 +780,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -759,8 +797,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -771,8 +814,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +829,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -803,8 +856,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -813,98 +881,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>4718591</v>
+      </c>
+      <c r="F10" s="9">
+        <v>8348600</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9024280</v>
+      </c>
+      <c r="H10" s="9">
+        <v>8837544</v>
+      </c>
+      <c r="I10" s="9">
+        <v>9940217</v>
+      </c>
+      <c r="J10" s="9">
         <v>11385682</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>10857129</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>12231911</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>12970943</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>12076340</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>218863</v>
+      </c>
+      <c r="F11" s="11">
+        <v>181904</v>
+      </c>
+      <c r="G11" s="11">
+        <v>305813</v>
+      </c>
+      <c r="H11" s="11">
+        <v>309288</v>
+      </c>
+      <c r="I11" s="11">
+        <v>321419</v>
+      </c>
+      <c r="J11" s="11">
         <v>368602</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>416488</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>672684</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>602365</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>685058</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>901217</v>
+      </c>
+      <c r="F12" s="9">
+        <v>909208</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1314706</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1505319</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1290288</v>
+      </c>
+      <c r="J12" s="9">
         <v>1280068</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>1806577</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>2443282</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>1467879</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>1883804</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>5838671</v>
+      </c>
+      <c r="F13" s="13">
+        <v>9439712</v>
+      </c>
+      <c r="G13" s="13">
+        <v>10644799</v>
+      </c>
+      <c r="H13" s="13">
+        <v>10652151</v>
+      </c>
+      <c r="I13" s="13">
+        <v>11551924</v>
+      </c>
+      <c r="J13" s="13">
         <v>13034352</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>13080194</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>15347877</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>15041187</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>14645202</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -923,164 +1056,284 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>5838671</v>
+      </c>
+      <c r="F15" s="13">
+        <v>9439712</v>
+      </c>
+      <c r="G15" s="13">
+        <v>10644799</v>
+      </c>
+      <c r="H15" s="13">
+        <v>10652151</v>
+      </c>
+      <c r="I15" s="13">
+        <v>11551924</v>
+      </c>
+      <c r="J15" s="13">
         <v>13034352</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>13080194</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>15347877</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>15041187</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>14645202</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-306836</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-431148</v>
+      </c>
+      <c r="G16" s="9">
+        <v>178240</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-319319</v>
+      </c>
+      <c r="I16" s="9">
+        <v>193996</v>
+      </c>
+      <c r="J16" s="9">
         <v>-150014</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>15712</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-67384</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-293855</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-653143</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>16353</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>-49510</v>
+      </c>
+      <c r="J17" s="11">
         <v>49510</v>
       </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>5548188</v>
+      </c>
+      <c r="F18" s="15">
+        <v>9008564</v>
+      </c>
+      <c r="G18" s="15">
+        <v>10823039</v>
+      </c>
+      <c r="H18" s="15">
+        <v>10332832</v>
+      </c>
+      <c r="I18" s="15">
+        <v>11696410</v>
+      </c>
+      <c r="J18" s="15">
         <v>12933848</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>13095906</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>15280493</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>14747332</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>13992059</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
         <v>1</v>
       </c>
-      <c r="F19" s="11">
+      <c r="H19" s="11">
+        <v>3809252</v>
+      </c>
+      <c r="I19" s="11">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="11">
+        <v>1</v>
+      </c>
+      <c r="K19" s="11">
         <v>915441</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>5035014</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>5583554</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>3423514</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-285712</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-1504510</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-1176557</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-4093200</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1364023</v>
+      </c>
+      <c r="J20" s="9">
         <v>-915441</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-5035014</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-5583554</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-3423514</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-3259075</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>5262476</v>
+      </c>
+      <c r="F21" s="13">
+        <v>7504054</v>
+      </c>
+      <c r="G21" s="13">
+        <v>9646483</v>
+      </c>
+      <c r="H21" s="13">
+        <v>10048884</v>
+      </c>
+      <c r="I21" s="13">
+        <v>13060432</v>
+      </c>
+      <c r="J21" s="13">
         <v>12018408</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>11705509</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>14731953</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>16907372</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>14156498</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1099,30 +1352,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>5262476</v>
+      </c>
+      <c r="F23" s="13">
+        <v>7504054</v>
+      </c>
+      <c r="G23" s="13">
+        <v>9646483</v>
+      </c>
+      <c r="H23" s="13">
+        <v>10048884</v>
+      </c>
+      <c r="I23" s="13">
+        <v>13060432</v>
+      </c>
+      <c r="J23" s="13">
         <v>12018408</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>11705509</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>14731953</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>16907372</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>14156498</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1131,8 +1414,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1141,8 +1429,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1151,10 +1444,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1173,8 +1471,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1183,198 +1496,323 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>582787</v>
+      </c>
+      <c r="F29" s="9">
+        <v>542896</v>
+      </c>
+      <c r="G29" s="9">
+        <v>468176</v>
+      </c>
+      <c r="H29" s="9">
+        <v>269756</v>
+      </c>
+      <c r="I29" s="9">
+        <v>376337</v>
+      </c>
+      <c r="J29" s="9">
         <v>651130</v>
       </c>
-      <c r="F29" s="9">
+      <c r="K29" s="9">
         <v>214562</v>
       </c>
-      <c r="G29" s="9">
+      <c r="L29" s="9">
         <v>124764</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>223408</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>469113</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>498853</v>
+      </c>
+      <c r="F30" s="11">
+        <v>581494</v>
+      </c>
+      <c r="G30" s="11">
+        <v>430588</v>
+      </c>
+      <c r="H30" s="11">
+        <v>308950</v>
+      </c>
+      <c r="I30" s="11">
+        <v>493379</v>
+      </c>
+      <c r="J30" s="11">
         <v>597035</v>
       </c>
-      <c r="F30" s="11">
+      <c r="K30" s="11">
         <v>509324</v>
       </c>
-      <c r="G30" s="11">
+      <c r="L30" s="11">
         <v>552216</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>441310</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>446375</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>1314644</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1739087</v>
+      </c>
+      <c r="G31" s="9">
+        <v>2661126</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1935737</v>
+      </c>
+      <c r="I31" s="9">
+        <v>2231077</v>
+      </c>
+      <c r="J31" s="9">
         <v>2481931</v>
       </c>
-      <c r="F31" s="9">
+      <c r="K31" s="9">
         <v>2197016</v>
       </c>
-      <c r="G31" s="9">
+      <c r="L31" s="9">
         <v>2043825</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>1496762</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>1757173</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>2855861</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1828069</v>
+      </c>
+      <c r="G32" s="11">
+        <v>3698405</v>
+      </c>
+      <c r="H32" s="11">
+        <v>2639570</v>
+      </c>
+      <c r="I32" s="11">
+        <v>1720278</v>
+      </c>
+      <c r="J32" s="11">
         <v>1600986</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>2151677</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>1634737</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>1981777</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>1312689</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>1511679</v>
+      </c>
+      <c r="F33" s="9">
+        <v>2570790</v>
+      </c>
+      <c r="G33" s="9">
+        <v>2818694</v>
+      </c>
+      <c r="H33" s="9">
+        <v>2850447</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1578612</v>
+      </c>
+      <c r="J33" s="9">
         <v>2443409</v>
       </c>
-      <c r="F33" s="9">
+      <c r="K33" s="9">
         <v>1549952</v>
       </c>
-      <c r="G33" s="9">
+      <c r="L33" s="9">
         <v>1707330</v>
       </c>
-      <c r="H33" s="9">
+      <c r="M33" s="9">
         <v>1427049</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <v>2448746</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>2560605</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1416429</v>
+      </c>
+      <c r="G34" s="11">
+        <v>2123064</v>
+      </c>
+      <c r="H34" s="11">
+        <v>2429160</v>
+      </c>
+      <c r="I34" s="11">
+        <v>1688709</v>
+      </c>
+      <c r="J34" s="11">
         <v>2584806</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>1258955</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>792425</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>1223323</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>1936484</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
+        <v>1706786</v>
+      </c>
+      <c r="F35" s="9">
+        <v>936459</v>
+      </c>
+      <c r="G35" s="9">
+        <v>865656</v>
+      </c>
+      <c r="H35" s="9">
+        <v>935182</v>
+      </c>
+      <c r="I35" s="9">
+        <v>1802878</v>
+      </c>
+      <c r="J35" s="9">
         <v>2220042</v>
       </c>
-      <c r="F35" s="9">
+      <c r="K35" s="9">
         <v>1257670</v>
       </c>
-      <c r="G35" s="9">
+      <c r="L35" s="9">
         <v>149039</v>
       </c>
-      <c r="H35" s="9">
+      <c r="M35" s="9">
         <v>1951495</v>
       </c>
-      <c r="I35" s="9">
+      <c r="N35" s="9">
         <v>2035847</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
+        <v>11031215</v>
+      </c>
+      <c r="F36" s="13">
+        <v>9615224</v>
+      </c>
+      <c r="G36" s="13">
+        <v>13065709</v>
+      </c>
+      <c r="H36" s="13">
+        <v>11368802</v>
+      </c>
+      <c r="I36" s="13">
+        <v>9891270</v>
+      </c>
+      <c r="J36" s="13">
         <v>12579339</v>
       </c>
-      <c r="F36" s="13">
+      <c r="K36" s="13">
         <v>9139156</v>
       </c>
-      <c r="G36" s="13">
+      <c r="L36" s="13">
         <v>7004336</v>
       </c>
-      <c r="H36" s="13">
+      <c r="M36" s="13">
         <v>8745124</v>
       </c>
-      <c r="I36" s="13">
+      <c r="N36" s="13">
         <v>10406427</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1383,8 +1821,13 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1393,8 +1836,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1403,10 +1851,15 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1425,8 +1878,23 @@
       <c r="I40" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1435,198 +1903,323 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
+        <v>943173</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1202389</v>
+      </c>
+      <c r="G42" s="9">
+        <v>973934</v>
+      </c>
+      <c r="H42" s="9">
+        <v>1152876</v>
+      </c>
+      <c r="I42" s="9">
+        <v>1333781</v>
+      </c>
+      <c r="J42" s="9">
         <v>714364</v>
       </c>
-      <c r="F42" s="9">
+      <c r="K42" s="9">
         <v>996404</v>
       </c>
-      <c r="G42" s="9">
+      <c r="L42" s="9">
         <v>1142663</v>
       </c>
-      <c r="H42" s="9">
+      <c r="M42" s="9">
         <v>1281649</v>
       </c>
-      <c r="I42" s="9">
+      <c r="N42" s="9">
         <v>873844</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
+        <v>315500</v>
+      </c>
+      <c r="F43" s="11">
+        <v>40000</v>
+      </c>
+      <c r="G43" s="11">
+        <v>180000</v>
+      </c>
+      <c r="H43" s="11">
+        <v>558200</v>
+      </c>
+      <c r="I43" s="11">
+        <v>300800</v>
+      </c>
+      <c r="J43" s="11">
         <v>100000</v>
       </c>
-      <c r="F43" s="11">
+      <c r="K43" s="11">
         <v>300000</v>
       </c>
-      <c r="G43" s="11">
+      <c r="L43" s="11">
         <v>30000</v>
       </c>
-      <c r="H43" s="11">
+      <c r="M43" s="11">
         <v>200000</v>
       </c>
-      <c r="I43" s="11">
+      <c r="N43" s="11">
         <v>34000</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
+        <v>2997692</v>
+      </c>
+      <c r="F44" s="9">
+        <v>4455895</v>
+      </c>
+      <c r="G44" s="9">
+        <v>3384194</v>
+      </c>
+      <c r="H44" s="9">
+        <v>3482718</v>
+      </c>
+      <c r="I44" s="9">
+        <v>3354724</v>
+      </c>
+      <c r="J44" s="9">
         <v>3457225</v>
       </c>
-      <c r="F44" s="9">
+      <c r="K44" s="9">
         <v>4029620</v>
       </c>
-      <c r="G44" s="9">
+      <c r="L44" s="9">
         <v>2811928</v>
       </c>
-      <c r="H44" s="9">
+      <c r="M44" s="9">
         <v>3783008</v>
       </c>
-      <c r="I44" s="9">
+      <c r="N44" s="9">
         <v>4419836</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
+        <v>1271389</v>
+      </c>
+      <c r="F45" s="11">
+        <v>4310999</v>
+      </c>
+      <c r="G45" s="11">
+        <v>2434239</v>
+      </c>
+      <c r="H45" s="11">
+        <v>1463163</v>
+      </c>
+      <c r="I45" s="11">
+        <v>2421800</v>
+      </c>
+      <c r="J45" s="11">
         <v>3477507</v>
       </c>
-      <c r="F45" s="11">
+      <c r="K45" s="11">
         <v>2459967</v>
       </c>
-      <c r="G45" s="11">
+      <c r="L45" s="11">
         <v>3054293</v>
       </c>
-      <c r="H45" s="11">
+      <c r="M45" s="11">
         <v>2144239</v>
       </c>
-      <c r="I45" s="11">
+      <c r="N45" s="11">
         <v>2951104</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
+        <v>6693120</v>
+      </c>
+      <c r="F46" s="9">
+        <v>6410880</v>
+      </c>
+      <c r="G46" s="9">
+        <v>7238190</v>
+      </c>
+      <c r="H46" s="9">
+        <v>4092484</v>
+      </c>
+      <c r="I46" s="9">
+        <v>6530580</v>
+      </c>
+      <c r="J46" s="9">
         <v>5201280</v>
       </c>
-      <c r="F46" s="9">
+      <c r="K46" s="9">
         <v>7620480</v>
       </c>
-      <c r="G46" s="9">
+      <c r="L46" s="9">
         <v>5160960</v>
       </c>
-      <c r="H46" s="9">
+      <c r="M46" s="9">
         <v>6853240</v>
       </c>
-      <c r="I46" s="9">
+      <c r="N46" s="9">
         <v>6330240</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
+        <v>4355905</v>
+      </c>
+      <c r="F47" s="11">
+        <v>6406670</v>
+      </c>
+      <c r="G47" s="11">
+        <v>6004353</v>
+      </c>
+      <c r="H47" s="11">
+        <v>4282354</v>
+      </c>
+      <c r="I47" s="11">
+        <v>5882098</v>
+      </c>
+      <c r="J47" s="11">
         <v>3860703</v>
       </c>
-      <c r="F47" s="11">
+      <c r="K47" s="11">
         <v>5013642</v>
       </c>
-      <c r="G47" s="11">
+      <c r="L47" s="11">
         <v>5366452</v>
       </c>
-      <c r="H47" s="11">
+      <c r="M47" s="11">
         <v>5460384</v>
       </c>
-      <c r="I47" s="11">
+      <c r="N47" s="11">
         <v>6071996</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
+        <v>5051414</v>
+      </c>
+      <c r="F48" s="9">
+        <v>5897160</v>
+      </c>
+      <c r="G48" s="9">
+        <v>5947549</v>
+      </c>
+      <c r="H48" s="9">
+        <v>5953543</v>
+      </c>
+      <c r="I48" s="9">
+        <v>5986218</v>
+      </c>
+      <c r="J48" s="9">
         <v>4804350</v>
       </c>
-      <c r="F48" s="9">
+      <c r="K48" s="9">
         <v>4990061</v>
       </c>
-      <c r="G48" s="9">
+      <c r="L48" s="9">
         <v>7131202</v>
       </c>
-      <c r="H48" s="9">
+      <c r="M48" s="9">
         <v>5536388</v>
       </c>
-      <c r="I48" s="9">
+      <c r="N48" s="9">
         <v>4789404</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
+        <v>21628193</v>
+      </c>
+      <c r="F49" s="13">
+        <v>28723993</v>
+      </c>
+      <c r="G49" s="13">
+        <v>26162459</v>
+      </c>
+      <c r="H49" s="13">
+        <v>20985338</v>
+      </c>
+      <c r="I49" s="13">
+        <v>25810001</v>
+      </c>
+      <c r="J49" s="13">
         <v>21615429</v>
       </c>
-      <c r="F49" s="13">
+      <c r="K49" s="13">
         <v>25410174</v>
       </c>
-      <c r="G49" s="13">
+      <c r="L49" s="13">
         <v>24697498</v>
       </c>
-      <c r="H49" s="13">
+      <c r="M49" s="13">
         <v>25258908</v>
       </c>
-      <c r="I49" s="13">
+      <c r="N49" s="13">
         <v>25470424</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1635,8 +2228,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1645,8 +2243,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1655,10 +2258,15 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1677,8 +2285,23 @@
       <c r="I53" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1687,198 +2310,323 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
+        <v>939242</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1277109</v>
+      </c>
+      <c r="G55" s="9">
+        <v>1051107</v>
+      </c>
+      <c r="H55" s="9">
+        <v>1046295</v>
+      </c>
+      <c r="I55" s="9">
+        <v>1058988</v>
+      </c>
+      <c r="J55" s="9">
         <v>1150932</v>
       </c>
-      <c r="F55" s="9">
+      <c r="K55" s="9">
         <v>1048228</v>
       </c>
-      <c r="G55" s="9">
+      <c r="L55" s="9">
         <v>1044019</v>
       </c>
-      <c r="H55" s="9">
+      <c r="M55" s="9">
         <v>1035944</v>
       </c>
-      <c r="I55" s="9">
+      <c r="N55" s="9">
         <v>1066805</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
+        <v>232859</v>
+      </c>
+      <c r="F56" s="11">
+        <v>190906</v>
+      </c>
+      <c r="G56" s="11">
+        <v>265238</v>
+      </c>
+      <c r="H56" s="11">
+        <v>373771</v>
+      </c>
+      <c r="I56" s="11">
+        <v>197144</v>
+      </c>
+      <c r="J56" s="11">
         <v>187711</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>233108</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>140906</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>194935</v>
       </c>
-      <c r="I56" s="11">
+      <c r="N56" s="11">
         <v>212049</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
+        <v>3474829</v>
+      </c>
+      <c r="F57" s="9">
+        <v>3533856</v>
+      </c>
+      <c r="G57" s="9">
+        <v>3652786</v>
+      </c>
+      <c r="H57" s="9">
+        <v>3187378</v>
+      </c>
+      <c r="I57" s="9">
+        <v>3103870</v>
+      </c>
+      <c r="J57" s="9">
         <v>3742140</v>
       </c>
-      <c r="F57" s="9">
+      <c r="K57" s="9">
         <v>3610109</v>
       </c>
-      <c r="G57" s="9">
+      <c r="L57" s="9">
         <v>3358991</v>
       </c>
-      <c r="H57" s="9">
+      <c r="M57" s="9">
         <v>3522597</v>
       </c>
-      <c r="I57" s="9">
+      <c r="N57" s="9">
         <v>3527020</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
+        <v>2480444</v>
+      </c>
+      <c r="F58" s="11">
+        <v>2440663</v>
+      </c>
+      <c r="G58" s="11">
+        <v>2802734</v>
+      </c>
+      <c r="H58" s="11">
+        <v>2382455</v>
+      </c>
+      <c r="I58" s="11">
+        <v>2541092</v>
+      </c>
+      <c r="J58" s="11">
         <v>2926816</v>
       </c>
-      <c r="F58" s="11">
+      <c r="K58" s="11">
         <v>2788114</v>
       </c>
-      <c r="G58" s="11">
+      <c r="L58" s="11">
         <v>2707253</v>
       </c>
-      <c r="H58" s="11">
+      <c r="M58" s="11">
         <v>2813327</v>
       </c>
-      <c r="I58" s="11">
+      <c r="N58" s="11">
         <v>2472601</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
+        <v>5581214</v>
+      </c>
+      <c r="F59" s="9">
+        <v>6162976</v>
+      </c>
+      <c r="G59" s="9">
+        <v>5513023</v>
+      </c>
+      <c r="H59" s="9">
+        <v>5364319</v>
+      </c>
+      <c r="I59" s="9">
+        <v>5665783</v>
+      </c>
+      <c r="J59" s="9">
         <v>6094737</v>
       </c>
-      <c r="F59" s="9">
+      <c r="K59" s="9">
         <v>5490544</v>
       </c>
-      <c r="G59" s="9">
+      <c r="L59" s="9">
         <v>5441241</v>
       </c>
-      <c r="H59" s="9">
+      <c r="M59" s="9">
         <v>5831543</v>
       </c>
-      <c r="I59" s="9">
+      <c r="N59" s="9">
         <v>5869071</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
+        <v>4991922</v>
+      </c>
+      <c r="F60" s="11">
+        <v>5700035</v>
+      </c>
+      <c r="G60" s="11">
+        <v>4743681</v>
+      </c>
+      <c r="H60" s="11">
+        <v>5022805</v>
+      </c>
+      <c r="I60" s="11">
+        <v>4986001</v>
+      </c>
+      <c r="J60" s="11">
         <v>5186554</v>
       </c>
-      <c r="F60" s="11">
+      <c r="K60" s="11">
         <v>4651434</v>
       </c>
-      <c r="G60" s="11">
+      <c r="L60" s="11">
         <v>4935554</v>
       </c>
-      <c r="H60" s="11">
+      <c r="M60" s="11">
         <v>4747223</v>
       </c>
-      <c r="I60" s="11">
+      <c r="N60" s="11">
         <v>5266905</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
+        <v>5382616</v>
+      </c>
+      <c r="F61" s="9">
+        <v>5967963</v>
+      </c>
+      <c r="G61" s="9">
+        <v>5200944</v>
+      </c>
+      <c r="H61" s="9">
+        <v>5085847</v>
+      </c>
+      <c r="I61" s="9">
+        <v>5569054</v>
+      </c>
+      <c r="J61" s="9">
         <v>5766722</v>
       </c>
-      <c r="F61" s="9">
+      <c r="K61" s="9">
         <v>5060558</v>
       </c>
-      <c r="G61" s="9">
+      <c r="L61" s="9">
         <v>5328746</v>
       </c>
-      <c r="H61" s="9">
+      <c r="M61" s="9">
         <v>5452036</v>
       </c>
-      <c r="I61" s="9">
+      <c r="N61" s="9">
         <v>5857199</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
+        <v>23083126</v>
+      </c>
+      <c r="F62" s="13">
+        <v>25273508</v>
+      </c>
+      <c r="G62" s="13">
+        <v>23229513</v>
+      </c>
+      <c r="H62" s="13">
+        <v>22462870</v>
+      </c>
+      <c r="I62" s="13">
+        <v>23121932</v>
+      </c>
+      <c r="J62" s="13">
         <v>25055612</v>
       </c>
-      <c r="F62" s="13">
+      <c r="K62" s="13">
         <v>22882095</v>
       </c>
-      <c r="G62" s="13">
+      <c r="L62" s="13">
         <v>22956710</v>
       </c>
-      <c r="H62" s="13">
+      <c r="M62" s="13">
         <v>23597605</v>
       </c>
-      <c r="I62" s="13">
+      <c r="N62" s="13">
         <v>24271650</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1887,8 +2635,13 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1897,8 +2650,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1907,10 +2665,15 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -1929,8 +2692,23 @@
       <c r="I66" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1939,198 +2717,323 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
+        <v>542896</v>
+      </c>
+      <c r="F68" s="9">
+        <v>468176</v>
+      </c>
+      <c r="G68" s="9">
+        <v>391003</v>
+      </c>
+      <c r="H68" s="9">
+        <v>376337</v>
+      </c>
+      <c r="I68" s="9">
+        <v>651130</v>
+      </c>
+      <c r="J68" s="9">
         <v>214562</v>
       </c>
-      <c r="F68" s="9">
+      <c r="K68" s="9">
         <v>162738</v>
       </c>
-      <c r="G68" s="9">
+      <c r="L68" s="9">
         <v>223408</v>
       </c>
-      <c r="H68" s="9">
+      <c r="M68" s="9">
         <v>469113</v>
       </c>
-      <c r="I68" s="9">
+      <c r="N68" s="9">
         <v>276152</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
+        <v>581494</v>
+      </c>
+      <c r="F69" s="11">
+        <v>430588</v>
+      </c>
+      <c r="G69" s="11">
+        <v>345349</v>
+      </c>
+      <c r="H69" s="11">
+        <v>493379</v>
+      </c>
+      <c r="I69" s="11">
+        <v>597035</v>
+      </c>
+      <c r="J69" s="11">
         <v>509324</v>
       </c>
-      <c r="F69" s="11">
+      <c r="K69" s="11">
         <v>576216</v>
       </c>
-      <c r="G69" s="11">
+      <c r="L69" s="11">
         <v>441310</v>
       </c>
-      <c r="H69" s="11">
+      <c r="M69" s="11">
         <v>446375</v>
       </c>
-      <c r="I69" s="11">
+      <c r="N69" s="11">
         <v>268326</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
+        <v>1739087</v>
+      </c>
+      <c r="F70" s="9">
+        <v>2661126</v>
+      </c>
+      <c r="G70" s="9">
+        <v>2392534</v>
+      </c>
+      <c r="H70" s="9">
+        <v>2231077</v>
+      </c>
+      <c r="I70" s="9">
+        <v>2481931</v>
+      </c>
+      <c r="J70" s="9">
         <v>2197016</v>
       </c>
-      <c r="F70" s="9">
+      <c r="K70" s="9">
         <v>2616527</v>
       </c>
-      <c r="G70" s="9">
+      <c r="L70" s="9">
         <v>1496762</v>
       </c>
-      <c r="H70" s="9">
+      <c r="M70" s="9">
         <v>1757173</v>
       </c>
-      <c r="I70" s="9">
+      <c r="N70" s="9">
         <v>2649989</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
+        <v>1828069</v>
+      </c>
+      <c r="F71" s="11">
+        <v>3698405</v>
+      </c>
+      <c r="G71" s="11">
+        <v>3329909</v>
+      </c>
+      <c r="H71" s="11">
+        <v>1720278</v>
+      </c>
+      <c r="I71" s="11">
+        <v>1600986</v>
+      </c>
+      <c r="J71" s="11">
         <v>2151677</v>
       </c>
-      <c r="F71" s="11">
+      <c r="K71" s="11">
         <v>1823530</v>
       </c>
-      <c r="G71" s="11">
+      <c r="L71" s="11">
         <v>1981777</v>
       </c>
-      <c r="H71" s="11">
+      <c r="M71" s="11">
         <v>1312689</v>
       </c>
-      <c r="I71" s="11">
+      <c r="N71" s="11">
         <v>1791192</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
+        <v>2570790</v>
+      </c>
+      <c r="F72" s="9">
+        <v>2818694</v>
+      </c>
+      <c r="G72" s="9">
+        <v>4543861</v>
+      </c>
+      <c r="H72" s="9">
+        <v>1578612</v>
+      </c>
+      <c r="I72" s="9">
+        <v>2443409</v>
+      </c>
+      <c r="J72" s="9">
         <v>1549952</v>
       </c>
-      <c r="F72" s="9">
+      <c r="K72" s="9">
         <v>3679888</v>
       </c>
-      <c r="G72" s="9">
+      <c r="L72" s="9">
         <v>1427049</v>
       </c>
-      <c r="H72" s="9">
+      <c r="M72" s="9">
         <v>2448746</v>
       </c>
-      <c r="I72" s="9">
+      <c r="N72" s="9">
         <v>2909915</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
+        <v>1416429</v>
+      </c>
+      <c r="F73" s="11">
+        <v>2123064</v>
+      </c>
+      <c r="G73" s="11">
+        <v>3383736</v>
+      </c>
+      <c r="H73" s="11">
+        <v>1688709</v>
+      </c>
+      <c r="I73" s="11">
+        <v>2584806</v>
+      </c>
+      <c r="J73" s="11">
         <v>1258955</v>
       </c>
-      <c r="F73" s="11">
+      <c r="K73" s="11">
         <v>1621163</v>
       </c>
-      <c r="G73" s="11">
+      <c r="L73" s="11">
         <v>1223323</v>
       </c>
-      <c r="H73" s="11">
+      <c r="M73" s="11">
         <v>1936484</v>
       </c>
-      <c r="I73" s="11">
+      <c r="N73" s="11">
         <v>2741575</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9">
+        <v>936459</v>
+      </c>
+      <c r="F74" s="9">
+        <v>865656</v>
+      </c>
+      <c r="G74" s="9">
+        <v>1612261</v>
+      </c>
+      <c r="H74" s="9">
+        <v>1802878</v>
+      </c>
+      <c r="I74" s="9">
+        <v>2220042</v>
+      </c>
+      <c r="J74" s="9">
         <v>1257670</v>
       </c>
-      <c r="F74" s="9">
+      <c r="K74" s="9">
         <v>1187173</v>
       </c>
-      <c r="G74" s="9">
+      <c r="L74" s="9">
         <v>1951495</v>
       </c>
-      <c r="H74" s="9">
+      <c r="M74" s="9">
         <v>2035847</v>
       </c>
-      <c r="I74" s="9">
+      <c r="N74" s="9">
         <v>968052</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
+        <v>9615224</v>
+      </c>
+      <c r="F75" s="13">
+        <v>13065709</v>
+      </c>
+      <c r="G75" s="13">
+        <v>15998653</v>
+      </c>
+      <c r="H75" s="13">
+        <v>9891270</v>
+      </c>
+      <c r="I75" s="13">
+        <v>12579339</v>
+      </c>
+      <c r="J75" s="13">
         <v>9139156</v>
       </c>
-      <c r="F75" s="13">
+      <c r="K75" s="13">
         <v>11667235</v>
       </c>
-      <c r="G75" s="13">
+      <c r="L75" s="13">
         <v>8745124</v>
       </c>
-      <c r="H75" s="13">
+      <c r="M75" s="13">
         <v>10406427</v>
       </c>
-      <c r="I75" s="13">
+      <c r="N75" s="13">
         <v>11605201</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2139,8 +3042,13 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2149,8 +3057,13 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2159,10 +3072,15 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2181,8 +3099,23 @@
       <c r="I79" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2191,198 +3124,323 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9">
+        <v>255758</v>
+      </c>
+      <c r="F81" s="9">
+        <v>369658</v>
+      </c>
+      <c r="G81" s="9">
+        <v>377748</v>
+      </c>
+      <c r="H81" s="9">
+        <v>286612</v>
+      </c>
+      <c r="I81" s="9">
+        <v>547616</v>
+      </c>
+      <c r="J81" s="9">
         <v>905205</v>
       </c>
-      <c r="F81" s="9">
+      <c r="K81" s="9">
         <v>348712</v>
       </c>
-      <c r="G81" s="9">
+      <c r="L81" s="9">
         <v>243723</v>
       </c>
-      <c r="H81" s="9">
+      <c r="M81" s="9">
         <v>391730</v>
       </c>
-      <c r="I81" s="9">
+      <c r="N81" s="9">
         <v>741001</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
+        <v>31820</v>
+      </c>
+      <c r="F82" s="11">
+        <v>38914</v>
+      </c>
+      <c r="G82" s="11">
+        <v>34562</v>
+      </c>
+      <c r="H82" s="11">
+        <v>18770</v>
+      </c>
+      <c r="I82" s="11">
+        <v>71819</v>
+      </c>
+      <c r="J82" s="11">
         <v>97214</v>
       </c>
-      <c r="F82" s="11">
+      <c r="K82" s="11">
         <v>61064</v>
       </c>
-      <c r="G82" s="11">
+      <c r="L82" s="11">
         <v>82433</v>
       </c>
-      <c r="H82" s="11">
+      <c r="M82" s="11">
         <v>58046</v>
       </c>
-      <c r="I82" s="11">
+      <c r="N82" s="11">
         <v>50278</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
+        <v>117373</v>
+      </c>
+      <c r="F83" s="9">
+        <v>506243</v>
+      </c>
+      <c r="G83" s="9">
+        <v>685588</v>
+      </c>
+      <c r="H83" s="9">
+        <v>1189782</v>
+      </c>
+      <c r="I83" s="9">
+        <v>1023285</v>
+      </c>
+      <c r="J83" s="9">
         <v>1157686</v>
       </c>
-      <c r="F83" s="9">
+      <c r="K83" s="9">
         <v>738585</v>
       </c>
-      <c r="G83" s="9">
+      <c r="L83" s="9">
         <v>1127888</v>
       </c>
-      <c r="H83" s="9">
+      <c r="M83" s="9">
         <v>1288099</v>
       </c>
-      <c r="I83" s="9">
+      <c r="N83" s="9">
         <v>1321840</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
+        <v>302254</v>
+      </c>
+      <c r="F84" s="11">
+        <v>213448</v>
+      </c>
+      <c r="G84" s="11">
+        <v>938872</v>
+      </c>
+      <c r="H84" s="11">
+        <v>879462</v>
+      </c>
+      <c r="I84" s="11">
+        <v>570559</v>
+      </c>
+      <c r="J84" s="11">
         <v>523649</v>
       </c>
-      <c r="F84" s="11">
+      <c r="K84" s="11">
         <v>702704</v>
       </c>
-      <c r="G84" s="11">
+      <c r="L84" s="11">
         <v>674950</v>
       </c>
-      <c r="H84" s="11">
+      <c r="M84" s="11">
         <v>839540</v>
       </c>
-      <c r="I84" s="11">
+      <c r="N84" s="11">
         <v>380786</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>141223</v>
+      </c>
+      <c r="F85" s="9">
+        <v>618837</v>
+      </c>
+      <c r="G85" s="9">
+        <v>635582</v>
+      </c>
+      <c r="H85" s="9">
+        <v>1063758</v>
+      </c>
+      <c r="I85" s="9">
+        <v>1040572</v>
+      </c>
+      <c r="J85" s="9">
         <v>884135</v>
       </c>
-      <c r="F85" s="9">
+      <c r="K85" s="9">
         <v>677596</v>
       </c>
-      <c r="G85" s="9">
+      <c r="L85" s="9">
         <v>857865</v>
       </c>
-      <c r="H85" s="9">
+      <c r="M85" s="9">
         <v>692018</v>
       </c>
-      <c r="I85" s="9">
+      <c r="N85" s="9">
         <v>1099762</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
+        <v>359157</v>
+      </c>
+      <c r="F86" s="11">
+        <v>280018</v>
+      </c>
+      <c r="G86" s="11">
+        <v>486699</v>
+      </c>
+      <c r="H86" s="11">
+        <v>1019599</v>
+      </c>
+      <c r="I86" s="11">
+        <v>819614</v>
+      </c>
+      <c r="J86" s="11">
         <v>1074929</v>
       </c>
-      <c r="F86" s="11">
+      <c r="K86" s="11">
         <v>576114</v>
       </c>
-      <c r="G86" s="11">
+      <c r="L86" s="11">
         <v>451413</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>689820</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>1048412</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
+        <v>175009</v>
+      </c>
+      <c r="F87" s="9">
+        <v>109706</v>
+      </c>
+      <c r="G87" s="9">
+        <v>102310</v>
+      </c>
+      <c r="H87" s="9">
+        <v>209843</v>
+      </c>
+      <c r="I87" s="9">
+        <v>416706</v>
+      </c>
+      <c r="J87" s="9">
         <v>545199</v>
       </c>
-      <c r="F87" s="9">
+      <c r="K87" s="9">
         <v>315006</v>
       </c>
-      <c r="G87" s="9">
+      <c r="L87" s="9">
         <v>50273</v>
       </c>
-      <c r="H87" s="9">
+      <c r="M87" s="9">
         <v>838319</v>
       </c>
-      <c r="I87" s="9">
+      <c r="N87" s="9">
         <v>1430744</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
+        <v>1382594</v>
+      </c>
+      <c r="F88" s="13">
+        <v>2136824</v>
+      </c>
+      <c r="G88" s="13">
+        <v>3261361</v>
+      </c>
+      <c r="H88" s="13">
+        <v>4667826</v>
+      </c>
+      <c r="I88" s="13">
+        <v>4490171</v>
+      </c>
+      <c r="J88" s="13">
         <v>5188017</v>
       </c>
-      <c r="F88" s="13">
+      <c r="K88" s="13">
         <v>3419781</v>
       </c>
-      <c r="G88" s="13">
+      <c r="L88" s="13">
         <v>3488545</v>
       </c>
-      <c r="H88" s="13">
+      <c r="M88" s="13">
         <v>4797572</v>
       </c>
-      <c r="I88" s="13">
+      <c r="N88" s="13">
         <v>6072823</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2391,8 +3449,13 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2401,8 +3464,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2411,10 +3479,15 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2433,8 +3506,23 @@
       <c r="I92" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2443,198 +3531,323 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9">
+        <v>673752</v>
+      </c>
+      <c r="F94" s="9">
+        <v>1118705</v>
+      </c>
+      <c r="G94" s="9">
+        <v>1028488</v>
+      </c>
+      <c r="H94" s="9">
+        <v>1387969</v>
+      </c>
+      <c r="I94" s="9">
+        <v>1839529</v>
+      </c>
+      <c r="J94" s="9">
         <v>1032537</v>
       </c>
-      <c r="F94" s="9">
+      <c r="K94" s="9">
         <v>1584197</v>
       </c>
-      <c r="G94" s="9">
+      <c r="L94" s="9">
         <v>1783854</v>
       </c>
-      <c r="H94" s="9">
+      <c r="M94" s="9">
         <v>2134422</v>
       </c>
-      <c r="I94" s="9">
+      <c r="N94" s="9">
         <v>1492495</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
+        <v>30313</v>
+      </c>
+      <c r="F95" s="11">
+        <v>6703</v>
+      </c>
+      <c r="G95" s="11">
+        <v>24355</v>
+      </c>
+      <c r="H95" s="11">
+        <v>107457</v>
+      </c>
+      <c r="I95" s="11">
+        <v>63089</v>
+      </c>
+      <c r="J95" s="11">
         <v>10166</v>
       </c>
-      <c r="F95" s="11">
+      <c r="K95" s="11">
         <v>53409</v>
       </c>
-      <c r="G95" s="11">
+      <c r="L95" s="11">
         <v>1427</v>
       </c>
-      <c r="H95" s="11">
+      <c r="M95" s="11">
         <v>30361</v>
       </c>
-      <c r="I95" s="11">
+      <c r="N95" s="11">
         <v>12060</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9">
+        <v>882609</v>
+      </c>
+      <c r="F96" s="9">
+        <v>1983147</v>
+      </c>
+      <c r="G96" s="9">
+        <v>928771</v>
+      </c>
+      <c r="H96" s="9">
+        <v>1295395</v>
+      </c>
+      <c r="I96" s="9">
+        <v>1307705</v>
+      </c>
+      <c r="J96" s="9">
         <v>1457177</v>
       </c>
-      <c r="F96" s="9">
+      <c r="K96" s="9">
         <v>2007735</v>
       </c>
-      <c r="G96" s="9">
+      <c r="L96" s="9">
         <v>1964523</v>
       </c>
-      <c r="H96" s="9">
+      <c r="M96" s="9">
         <v>2147720</v>
       </c>
-      <c r="I96" s="9">
+      <c r="N96" s="9">
         <v>2402300</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
+        <v>241291</v>
+      </c>
+      <c r="F97" s="11">
+        <v>1625547</v>
+      </c>
+      <c r="G97" s="11">
+        <v>658083</v>
+      </c>
+      <c r="H97" s="11">
+        <v>465624</v>
+      </c>
+      <c r="I97" s="11">
+        <v>872283</v>
+      </c>
+      <c r="J97" s="11">
         <v>1412668</v>
       </c>
-      <c r="F97" s="11">
+      <c r="K97" s="11">
         <v>1069172</v>
       </c>
-      <c r="G97" s="11">
+      <c r="L97" s="11">
         <v>1312110</v>
       </c>
-      <c r="H97" s="11">
+      <c r="M97" s="11">
         <v>947187</v>
       </c>
-      <c r="I97" s="11">
+      <c r="N97" s="11">
         <v>1388010</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
+        <v>2176961</v>
+      </c>
+      <c r="F98" s="9">
+        <v>1693118</v>
+      </c>
+      <c r="G98" s="9">
+        <v>4024067</v>
+      </c>
+      <c r="H98" s="9">
+        <v>2082658</v>
+      </c>
+      <c r="I98" s="9">
+        <v>2609106</v>
+      </c>
+      <c r="J98" s="9">
         <v>2709585</v>
       </c>
-      <c r="F98" s="9">
+      <c r="K98" s="9">
         <v>3718861</v>
       </c>
-      <c r="G98" s="9">
+      <c r="L98" s="9">
         <v>2759513</v>
       </c>
-      <c r="H98" s="9">
+      <c r="M98" s="9">
         <v>3669173</v>
       </c>
-      <c r="I98" s="9">
+      <c r="N98" s="9">
         <v>3507841</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
+        <v>990099</v>
+      </c>
+      <c r="F99" s="11">
+        <v>2182989</v>
+      </c>
+      <c r="G99" s="11">
+        <v>2833929</v>
+      </c>
+      <c r="H99" s="11">
+        <v>1938396</v>
+      </c>
+      <c r="I99" s="11">
+        <v>2478753</v>
+      </c>
+      <c r="J99" s="11">
         <v>1650716</v>
       </c>
-      <c r="F99" s="11">
+      <c r="K99" s="11">
         <v>2657063</v>
       </c>
-      <c r="G99" s="11">
+      <c r="L99" s="11">
         <v>2824066</v>
       </c>
-      <c r="H99" s="11">
+      <c r="M99" s="11">
         <v>2886121</v>
       </c>
-      <c r="I99" s="11">
+      <c r="N99" s="11">
         <v>3094546</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9">
+        <v>574943</v>
+      </c>
+      <c r="F100" s="9">
+        <v>862928</v>
+      </c>
+      <c r="G100" s="9">
+        <v>1224477</v>
+      </c>
+      <c r="H100" s="9">
+        <v>1382390</v>
+      </c>
+      <c r="I100" s="9">
+        <v>1467598</v>
+      </c>
+      <c r="J100" s="9">
         <v>1344598</v>
       </c>
-      <c r="F100" s="9">
+      <c r="K100" s="9">
         <v>1538195</v>
       </c>
-      <c r="G100" s="9">
+      <c r="L100" s="9">
         <v>2895445</v>
       </c>
-      <c r="H100" s="9">
+      <c r="M100" s="9">
         <v>2431210</v>
       </c>
-      <c r="I100" s="9">
+      <c r="N100" s="9">
         <v>1675651</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
+        <v>5569968</v>
+      </c>
+      <c r="F101" s="13">
+        <v>9473137</v>
+      </c>
+      <c r="G101" s="13">
+        <v>10722170</v>
+      </c>
+      <c r="H101" s="13">
+        <v>8659889</v>
+      </c>
+      <c r="I101" s="13">
+        <v>10638063</v>
+      </c>
+      <c r="J101" s="13">
         <v>9617447</v>
       </c>
-      <c r="F101" s="13">
+      <c r="K101" s="13">
         <v>12628632</v>
       </c>
-      <c r="G101" s="13">
+      <c r="L101" s="13">
         <v>13540938</v>
       </c>
-      <c r="H101" s="13">
+      <c r="M101" s="13">
         <v>14246194</v>
       </c>
-      <c r="I101" s="13">
+      <c r="N101" s="13">
         <v>13572903</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2643,8 +3856,13 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2653,8 +3871,13 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2663,10 +3886,15 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -2685,8 +3913,23 @@
       <c r="I105" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2695,198 +3938,323 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
+        <v>480388</v>
+      </c>
+      <c r="F107" s="9">
+        <v>1110615</v>
+      </c>
+      <c r="G107" s="9">
+        <v>1046334</v>
+      </c>
+      <c r="H107" s="9">
+        <v>1126965</v>
+      </c>
+      <c r="I107" s="9">
+        <v>1481940</v>
+      </c>
+      <c r="J107" s="9">
         <v>1589030</v>
       </c>
-      <c r="F107" s="9">
+      <c r="K107" s="9">
         <v>1641944</v>
       </c>
-      <c r="G107" s="9">
+      <c r="L107" s="9">
         <v>1635847</v>
       </c>
-      <c r="H107" s="9">
+      <c r="M107" s="9">
         <v>1785151</v>
       </c>
-      <c r="I107" s="9">
+      <c r="N107" s="9">
         <v>1717570</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
+        <v>22190</v>
+      </c>
+      <c r="F108" s="11">
+        <v>11055</v>
+      </c>
+      <c r="G108" s="11">
+        <v>40147</v>
+      </c>
+      <c r="H108" s="11">
+        <v>54408</v>
+      </c>
+      <c r="I108" s="11">
+        <v>37694</v>
+      </c>
+      <c r="J108" s="11">
         <v>46315</v>
       </c>
-      <c r="F108" s="11">
+      <c r="K108" s="11">
         <v>30783</v>
       </c>
-      <c r="G108" s="11">
+      <c r="L108" s="11">
         <v>25814</v>
       </c>
-      <c r="H108" s="11">
+      <c r="M108" s="11">
         <v>38129</v>
       </c>
-      <c r="I108" s="11">
+      <c r="N108" s="11">
         <v>32785</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
+        <v>645231</v>
+      </c>
+      <c r="F109" s="9">
+        <v>1803802</v>
+      </c>
+      <c r="G109" s="9">
+        <v>1222250</v>
+      </c>
+      <c r="H109" s="9">
+        <v>1461892</v>
+      </c>
+      <c r="I109" s="9">
+        <v>1173304</v>
+      </c>
+      <c r="J109" s="9">
         <v>1876278</v>
       </c>
-      <c r="F109" s="9">
+      <c r="K109" s="9">
         <v>1328288</v>
       </c>
-      <c r="G109" s="9">
+      <c r="L109" s="9">
         <v>1804312</v>
       </c>
-      <c r="H109" s="9">
+      <c r="M109" s="9">
         <v>2113979</v>
       </c>
-      <c r="I109" s="9">
+      <c r="N109" s="9">
         <v>1938689</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
+        <v>301784</v>
+      </c>
+      <c r="F110" s="11">
+        <v>900123</v>
+      </c>
+      <c r="G110" s="11">
+        <v>574067</v>
+      </c>
+      <c r="H110" s="11">
+        <v>774527</v>
+      </c>
+      <c r="I110" s="11">
+        <v>919193</v>
+      </c>
+      <c r="J110" s="11">
         <v>1233613</v>
       </c>
-      <c r="F110" s="11">
+      <c r="K110" s="11">
         <v>1027927</v>
       </c>
-      <c r="G110" s="11">
+      <c r="L110" s="11">
         <v>1147520</v>
       </c>
-      <c r="H110" s="11">
+      <c r="M110" s="11">
         <v>1405941</v>
       </c>
-      <c r="I110" s="11">
+      <c r="N110" s="11">
         <v>830106</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
+        <v>1653572</v>
+      </c>
+      <c r="F111" s="9">
+        <v>1676373</v>
+      </c>
+      <c r="G111" s="9">
+        <v>3088779</v>
+      </c>
+      <c r="H111" s="9">
+        <v>2105844</v>
+      </c>
+      <c r="I111" s="9">
+        <v>2765543</v>
+      </c>
+      <c r="J111" s="9">
         <v>2916124</v>
       </c>
-      <c r="F111" s="9">
+      <c r="K111" s="9">
         <v>2902273</v>
       </c>
-      <c r="G111" s="9">
+      <c r="L111" s="9">
         <v>2925360</v>
       </c>
-      <c r="H111" s="9">
+      <c r="M111" s="9">
         <v>3261429</v>
       </c>
-      <c r="I111" s="9">
+      <c r="N111" s="9">
         <v>2572113</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
+        <v>1030691</v>
+      </c>
+      <c r="F112" s="11">
+        <v>1976308</v>
+      </c>
+      <c r="G112" s="11">
+        <v>1984320</v>
+      </c>
+      <c r="H112" s="11">
+        <v>2138381</v>
+      </c>
+      <c r="I112" s="11">
+        <v>2223438</v>
+      </c>
+      <c r="J112" s="11">
         <v>2149531</v>
       </c>
-      <c r="F112" s="11">
+      <c r="K112" s="11">
         <v>2397711</v>
       </c>
-      <c r="G112" s="11">
+      <c r="L112" s="11">
         <v>2585659</v>
       </c>
-      <c r="H112" s="11">
+      <c r="M112" s="11">
         <v>2527529</v>
       </c>
-      <c r="I112" s="11">
+      <c r="N112" s="11">
         <v>2360058</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
+        <v>584735</v>
+      </c>
+      <c r="F113" s="9">
+        <v>870324</v>
+      </c>
+      <c r="G113" s="9">
+        <v>1021417</v>
+      </c>
+      <c r="H113" s="9">
+        <v>1175527</v>
+      </c>
+      <c r="I113" s="9">
+        <v>1339105</v>
+      </c>
+      <c r="J113" s="9">
         <v>1574791</v>
       </c>
-      <c r="F113" s="9">
+      <c r="K113" s="9">
         <v>1528202</v>
       </c>
-      <c r="G113" s="9">
+      <c r="L113" s="9">
         <v>2107399</v>
       </c>
-      <c r="H113" s="9">
+      <c r="M113" s="9">
         <v>1838785</v>
       </c>
-      <c r="I113" s="9">
+      <c r="N113" s="9">
         <v>2625019</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
+        <v>4718591</v>
+      </c>
+      <c r="F114" s="13">
+        <v>8348600</v>
+      </c>
+      <c r="G114" s="13">
+        <v>8977314</v>
+      </c>
+      <c r="H114" s="13">
+        <v>8837544</v>
+      </c>
+      <c r="I114" s="13">
+        <v>9940217</v>
+      </c>
+      <c r="J114" s="13">
         <v>11385682</v>
       </c>
-      <c r="F114" s="13">
+      <c r="K114" s="13">
         <v>10857128</v>
       </c>
-      <c r="G114" s="13">
+      <c r="L114" s="13">
         <v>12231911</v>
       </c>
-      <c r="H114" s="13">
+      <c r="M114" s="13">
         <v>12970943</v>
       </c>
-      <c r="I114" s="13">
+      <c r="N114" s="13">
         <v>12076340</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2895,8 +4263,13 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2905,8 +4278,13 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2915,10 +4293,15 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -2937,8 +4320,23 @@
       <c r="I118" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2947,198 +4345,323 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9">
+        <v>369658</v>
+      </c>
+      <c r="F120" s="9">
+        <v>377748</v>
+      </c>
+      <c r="G120" s="9">
+        <v>359902</v>
+      </c>
+      <c r="H120" s="9">
+        <v>547616</v>
+      </c>
+      <c r="I120" s="9">
+        <v>905205</v>
+      </c>
+      <c r="J120" s="9">
         <v>348712</v>
       </c>
-      <c r="F120" s="9">
+      <c r="K120" s="9">
         <v>290965</v>
       </c>
-      <c r="G120" s="9">
+      <c r="L120" s="9">
         <v>391730</v>
       </c>
-      <c r="H120" s="9">
+      <c r="M120" s="9">
         <v>741001</v>
       </c>
-      <c r="I120" s="9">
+      <c r="N120" s="9">
         <v>515926</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
+        <v>38914</v>
+      </c>
+      <c r="F121" s="11">
+        <v>34562</v>
+      </c>
+      <c r="G121" s="11">
+        <v>18771</v>
+      </c>
+      <c r="H121" s="11">
+        <v>71819</v>
+      </c>
+      <c r="I121" s="11">
+        <v>97214</v>
+      </c>
+      <c r="J121" s="11">
         <v>61064</v>
       </c>
-      <c r="F121" s="11">
+      <c r="K121" s="11">
         <v>83690</v>
       </c>
-      <c r="G121" s="11">
+      <c r="L121" s="11">
         <v>58046</v>
       </c>
-      <c r="H121" s="11">
+      <c r="M121" s="11">
         <v>50278</v>
       </c>
-      <c r="I121" s="11">
+      <c r="N121" s="11">
         <v>29553</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9">
+        <v>506243</v>
+      </c>
+      <c r="F122" s="9">
+        <v>685588</v>
+      </c>
+      <c r="G122" s="9">
+        <v>392109</v>
+      </c>
+      <c r="H122" s="9">
+        <v>1023285</v>
+      </c>
+      <c r="I122" s="9">
+        <v>1157686</v>
+      </c>
+      <c r="J122" s="9">
         <v>738585</v>
       </c>
-      <c r="F122" s="9">
+      <c r="K122" s="9">
         <v>1418032</v>
       </c>
-      <c r="G122" s="9">
+      <c r="L122" s="9">
         <v>1288099</v>
       </c>
-      <c r="H122" s="9">
+      <c r="M122" s="9">
         <v>1321840</v>
       </c>
-      <c r="I122" s="9">
+      <c r="N122" s="9">
         <v>1785451</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
+        <v>213448</v>
+      </c>
+      <c r="F123" s="11">
+        <v>938872</v>
+      </c>
+      <c r="G123" s="11">
+        <v>1022887</v>
+      </c>
+      <c r="H123" s="11">
+        <v>570559</v>
+      </c>
+      <c r="I123" s="11">
+        <v>523649</v>
+      </c>
+      <c r="J123" s="11">
         <v>702704</v>
       </c>
-      <c r="F123" s="11">
+      <c r="K123" s="11">
         <v>743949</v>
       </c>
-      <c r="G123" s="11">
+      <c r="L123" s="11">
         <v>839540</v>
       </c>
-      <c r="H123" s="11">
+      <c r="M123" s="11">
         <v>380786</v>
       </c>
-      <c r="I123" s="11">
+      <c r="N123" s="11">
         <v>938690</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9">
+        <v>618837</v>
+      </c>
+      <c r="F124" s="9">
+        <v>635582</v>
+      </c>
+      <c r="G124" s="9">
+        <v>1570870</v>
+      </c>
+      <c r="H124" s="9">
+        <v>1040572</v>
+      </c>
+      <c r="I124" s="9">
+        <v>884135</v>
+      </c>
+      <c r="J124" s="9">
         <v>677596</v>
       </c>
-      <c r="F124" s="9">
+      <c r="K124" s="9">
         <v>1494184</v>
       </c>
-      <c r="G124" s="9">
+      <c r="L124" s="9">
         <v>692018</v>
       </c>
-      <c r="H124" s="9">
+      <c r="M124" s="9">
         <v>1099762</v>
       </c>
-      <c r="I124" s="9">
+      <c r="N124" s="9">
         <v>2035489</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
+        <v>280018</v>
+      </c>
+      <c r="F125" s="11">
+        <v>486699</v>
+      </c>
+      <c r="G125" s="11">
+        <v>1336308</v>
+      </c>
+      <c r="H125" s="11">
+        <v>819614</v>
+      </c>
+      <c r="I125" s="11">
+        <v>1074929</v>
+      </c>
+      <c r="J125" s="11">
         <v>576114</v>
       </c>
-      <c r="F125" s="11">
+      <c r="K125" s="11">
         <v>835466</v>
       </c>
-      <c r="G125" s="11">
+      <c r="L125" s="11">
         <v>689820</v>
       </c>
-      <c r="H125" s="11">
+      <c r="M125" s="11">
         <v>1048412</v>
       </c>
-      <c r="I125" s="11">
+      <c r="N125" s="11">
         <v>1782900</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9">
+        <v>109706</v>
+      </c>
+      <c r="F126" s="9">
+        <v>102310</v>
+      </c>
+      <c r="G126" s="9">
+        <v>305370</v>
+      </c>
+      <c r="H126" s="9">
+        <v>416706</v>
+      </c>
+      <c r="I126" s="9">
+        <v>545199</v>
+      </c>
+      <c r="J126" s="9">
         <v>315006</v>
       </c>
-      <c r="F126" s="9">
+      <c r="K126" s="9">
         <v>324999</v>
       </c>
-      <c r="G126" s="9">
+      <c r="L126" s="9">
         <v>838319</v>
       </c>
-      <c r="H126" s="9">
+      <c r="M126" s="9">
         <v>1430744</v>
       </c>
-      <c r="I126" s="9">
+      <c r="N126" s="9">
         <v>481376</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
+        <v>2136824</v>
+      </c>
+      <c r="F127" s="13">
+        <v>3261361</v>
+      </c>
+      <c r="G127" s="13">
+        <v>5006217</v>
+      </c>
+      <c r="H127" s="13">
+        <v>4490171</v>
+      </c>
+      <c r="I127" s="13">
+        <v>5188017</v>
+      </c>
+      <c r="J127" s="13">
         <v>3419781</v>
       </c>
-      <c r="F127" s="13">
+      <c r="K127" s="13">
         <v>5191285</v>
       </c>
-      <c r="G127" s="13">
+      <c r="L127" s="13">
         <v>4797572</v>
       </c>
-      <c r="H127" s="13">
+      <c r="M127" s="13">
         <v>6072823</v>
       </c>
-      <c r="I127" s="13">
+      <c r="N127" s="13">
         <v>7569385</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3147,8 +4670,13 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3157,8 +4685,13 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3167,10 +4700,15 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3189,8 +4727,23 @@
       <c r="I131" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M131" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N131" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3199,176 +4752,286 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
+        <v>438853</v>
+      </c>
+      <c r="F133" s="9">
+        <v>680900</v>
+      </c>
+      <c r="G133" s="9">
+        <v>806850</v>
+      </c>
+      <c r="H133" s="9">
+        <v>1062486</v>
+      </c>
+      <c r="I133" s="9">
+        <v>1455121</v>
+      </c>
+      <c r="J133" s="9">
         <v>1390206</v>
       </c>
-      <c r="F133" s="9">
+      <c r="K133" s="9">
         <v>1625227</v>
       </c>
-      <c r="G133" s="9">
+      <c r="L133" s="9">
         <v>1953472</v>
       </c>
-      <c r="H133" s="9">
+      <c r="M133" s="9">
         <v>1753429</v>
       </c>
-      <c r="I133" s="9">
+      <c r="N133" s="9">
         <v>1579579</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
+        <v>63786</v>
+      </c>
+      <c r="F134" s="11">
+        <v>66921</v>
+      </c>
+      <c r="G134" s="11">
+        <v>80267</v>
+      </c>
+      <c r="H134" s="11">
+        <v>60754</v>
+      </c>
+      <c r="I134" s="11">
+        <v>145566</v>
+      </c>
+      <c r="J134" s="11">
         <v>162828</v>
       </c>
-      <c r="F134" s="11">
+      <c r="K134" s="11">
         <v>119892</v>
       </c>
-      <c r="G134" s="11">
+      <c r="L134" s="11">
         <v>149277</v>
       </c>
-      <c r="H134" s="11">
+      <c r="M134" s="11">
         <v>131531</v>
       </c>
-      <c r="I134" s="11">
+      <c r="N134" s="11">
         <v>112636</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
+        <v>89281</v>
+      </c>
+      <c r="F135" s="9">
+        <v>291097</v>
+      </c>
+      <c r="G135" s="9">
+        <v>257631</v>
+      </c>
+      <c r="H135" s="9">
+        <v>614640</v>
+      </c>
+      <c r="I135" s="9">
+        <v>458651</v>
+      </c>
+      <c r="J135" s="9">
         <v>466446</v>
       </c>
-      <c r="F135" s="9">
+      <c r="K135" s="9">
         <v>336176</v>
       </c>
-      <c r="G135" s="9">
+      <c r="L135" s="9">
         <v>551852</v>
       </c>
-      <c r="H135" s="9">
+      <c r="M135" s="9">
         <v>860590</v>
       </c>
-      <c r="I135" s="9">
+      <c r="N135" s="9">
         <v>752254</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
+        <v>105836</v>
+      </c>
+      <c r="F136" s="11">
+        <v>116761</v>
+      </c>
+      <c r="G136" s="11">
+        <v>253859</v>
+      </c>
+      <c r="H136" s="11">
+        <v>333184</v>
+      </c>
+      <c r="I136" s="11">
+        <v>331667</v>
+      </c>
+      <c r="J136" s="11">
         <v>327079</v>
       </c>
-      <c r="F136" s="11">
+      <c r="K136" s="11">
         <v>326584</v>
       </c>
-      <c r="G136" s="11">
+      <c r="L136" s="11">
         <v>412880</v>
       </c>
-      <c r="H136" s="11">
+      <c r="M136" s="11">
         <v>423630</v>
       </c>
-      <c r="I136" s="11">
+      <c r="N136" s="11">
         <v>290081</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
+        <v>93421</v>
+      </c>
+      <c r="F137" s="9">
+        <v>240719</v>
+      </c>
+      <c r="G137" s="9">
+        <v>225488</v>
+      </c>
+      <c r="H137" s="9">
+        <v>373190</v>
+      </c>
+      <c r="I137" s="9">
+        <v>659169</v>
+      </c>
+      <c r="J137" s="9">
         <v>361845</v>
       </c>
-      <c r="F137" s="9">
+      <c r="K137" s="9">
         <v>437172</v>
       </c>
-      <c r="G137" s="9">
+      <c r="L137" s="9">
         <v>502460</v>
       </c>
-      <c r="H137" s="9">
+      <c r="M137" s="9">
         <v>484929</v>
       </c>
-      <c r="I137" s="9">
+      <c r="N137" s="9">
         <v>449112</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
+        <v>140263</v>
+      </c>
+      <c r="F138" s="11">
+        <v>197693</v>
+      </c>
+      <c r="G138" s="11">
+        <v>229244</v>
+      </c>
+      <c r="H138" s="11">
+        <v>419733</v>
+      </c>
+      <c r="I138" s="11">
+        <v>485349</v>
+      </c>
+      <c r="J138" s="11">
         <v>415864</v>
       </c>
-      <c r="F138" s="11">
+      <c r="K138" s="11">
         <v>457613</v>
       </c>
-      <c r="G138" s="11">
+      <c r="L138" s="11">
         <v>569660</v>
       </c>
-      <c r="H138" s="11">
+      <c r="M138" s="11">
         <v>563890</v>
       </c>
-      <c r="I138" s="11">
+      <c r="N138" s="11">
         <v>541400</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
+        <v>102537</v>
+      </c>
+      <c r="F139" s="9">
+        <v>117150</v>
+      </c>
+      <c r="G139" s="9">
+        <v>118188</v>
+      </c>
+      <c r="H139" s="9">
+        <v>224387</v>
+      </c>
+      <c r="I139" s="9">
+        <v>231134</v>
+      </c>
+      <c r="J139" s="9">
         <v>245580</v>
       </c>
-      <c r="F139" s="9">
+      <c r="K139" s="9">
         <v>250468</v>
       </c>
-      <c r="G139" s="9">
+      <c r="L139" s="9">
         <v>337314</v>
       </c>
-      <c r="H139" s="9">
+      <c r="M139" s="9">
         <v>429578</v>
       </c>
-      <c r="I139" s="9">
+      <c r="N139" s="9">
         <v>702776</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3377,8 +5040,13 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3387,8 +5055,13 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3397,10 +5070,15 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -3419,8 +5097,23 @@
       <c r="I143" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K143" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L143" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M143" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N143" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3429,176 +5122,286 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
+        <v>714346</v>
+      </c>
+      <c r="F145" s="9">
+        <v>930402</v>
+      </c>
+      <c r="G145" s="9">
+        <v>1056014</v>
+      </c>
+      <c r="H145" s="9">
+        <v>1203919</v>
+      </c>
+      <c r="I145" s="9">
+        <v>1379184</v>
+      </c>
+      <c r="J145" s="9">
         <v>1445393</v>
       </c>
-      <c r="F145" s="9">
+      <c r="K145" s="9">
         <v>1589914</v>
       </c>
-      <c r="G145" s="9">
+      <c r="L145" s="9">
         <v>1561137</v>
       </c>
-      <c r="H145" s="9">
+      <c r="M145" s="9">
         <v>1665372</v>
       </c>
-      <c r="I145" s="9">
+      <c r="N145" s="9">
         <v>1707965</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
+        <v>96079</v>
+      </c>
+      <c r="F146" s="11">
+        <v>167575</v>
+      </c>
+      <c r="G146" s="11">
+        <v>135306</v>
+      </c>
+      <c r="H146" s="11">
+        <v>192506</v>
+      </c>
+      <c r="I146" s="11">
+        <v>209737</v>
+      </c>
+      <c r="J146" s="11">
         <v>101660</v>
       </c>
-      <c r="F146" s="11">
+      <c r="K146" s="11">
         <v>178030</v>
       </c>
-      <c r="G146" s="11">
+      <c r="L146" s="11">
         <v>47567</v>
       </c>
-      <c r="H146" s="11">
+      <c r="M146" s="11">
         <v>151805</v>
       </c>
-      <c r="I146" s="11">
+      <c r="N146" s="11">
         <v>354706</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
+        <v>294430</v>
+      </c>
+      <c r="F147" s="9">
+        <v>445061</v>
+      </c>
+      <c r="G147" s="9">
+        <v>274444</v>
+      </c>
+      <c r="H147" s="9">
+        <v>371949</v>
+      </c>
+      <c r="I147" s="9">
+        <v>389810</v>
+      </c>
+      <c r="J147" s="9">
         <v>421487</v>
       </c>
-      <c r="F147" s="9">
+      <c r="K147" s="9">
         <v>498244</v>
       </c>
-      <c r="G147" s="9">
+      <c r="L147" s="9">
         <v>698639</v>
       </c>
-      <c r="H147" s="9">
+      <c r="M147" s="9">
         <v>567728</v>
       </c>
-      <c r="I147" s="9">
+      <c r="N147" s="9">
         <v>543527</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
+        <v>189785</v>
+      </c>
+      <c r="F148" s="11">
+        <v>377070</v>
+      </c>
+      <c r="G148" s="11">
+        <v>270344</v>
+      </c>
+      <c r="H148" s="11">
+        <v>318231</v>
+      </c>
+      <c r="I148" s="11">
+        <v>360180</v>
+      </c>
+      <c r="J148" s="11">
         <v>406230</v>
       </c>
-      <c r="F148" s="11">
+      <c r="K148" s="11">
         <v>434629</v>
       </c>
-      <c r="G148" s="11">
+      <c r="L148" s="11">
         <v>429595</v>
       </c>
-      <c r="H148" s="11">
+      <c r="M148" s="11">
         <v>441736</v>
       </c>
-      <c r="I148" s="11">
+      <c r="N148" s="11">
         <v>470336</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9">
+        <v>325254</v>
+      </c>
+      <c r="F149" s="9">
+        <v>264101</v>
+      </c>
+      <c r="G149" s="9">
+        <v>555949</v>
+      </c>
+      <c r="H149" s="9">
+        <v>508898</v>
+      </c>
+      <c r="I149" s="9">
+        <v>399521</v>
+      </c>
+      <c r="J149" s="9">
         <v>520946</v>
       </c>
-      <c r="F149" s="9">
+      <c r="K149" s="9">
         <v>488009</v>
       </c>
-      <c r="G149" s="9">
+      <c r="L149" s="9">
         <v>534690</v>
       </c>
-      <c r="H149" s="9">
+      <c r="M149" s="9">
         <v>535392</v>
       </c>
-      <c r="I149" s="9">
+      <c r="N149" s="9">
         <v>554140</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11">
+        <v>227300</v>
+      </c>
+      <c r="F150" s="11">
+        <v>340737</v>
+      </c>
+      <c r="G150" s="11">
+        <v>471979</v>
+      </c>
+      <c r="H150" s="11">
+        <v>452647</v>
+      </c>
+      <c r="I150" s="11">
+        <v>421406</v>
+      </c>
+      <c r="J150" s="11">
         <v>427569</v>
       </c>
-      <c r="F150" s="11">
+      <c r="K150" s="11">
         <v>529967</v>
       </c>
-      <c r="G150" s="11">
+      <c r="L150" s="11">
         <v>526245</v>
       </c>
-      <c r="H150" s="11">
+      <c r="M150" s="11">
         <v>528556</v>
       </c>
-      <c r="I150" s="11">
+      <c r="N150" s="11">
         <v>509642</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9">
+        <v>113818</v>
+      </c>
+      <c r="F151" s="9">
+        <v>146329</v>
+      </c>
+      <c r="G151" s="9">
+        <v>205879</v>
+      </c>
+      <c r="H151" s="9">
+        <v>232196</v>
+      </c>
+      <c r="I151" s="9">
+        <v>245163</v>
+      </c>
+      <c r="J151" s="9">
         <v>279871</v>
       </c>
-      <c r="F151" s="9">
+      <c r="K151" s="9">
         <v>308252</v>
       </c>
-      <c r="G151" s="9">
+      <c r="L151" s="9">
         <v>406025</v>
       </c>
-      <c r="H151" s="9">
+      <c r="M151" s="9">
         <v>439133</v>
       </c>
-      <c r="I151" s="9">
+      <c r="N151" s="9">
         <v>349866</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3607,8 +5410,13 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3617,8 +5425,13 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3627,10 +5440,15 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -3649,8 +5467,23 @@
       <c r="I155" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M155" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N155" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3659,176 +5492,286 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9">
+        <v>511464</v>
+      </c>
+      <c r="F157" s="9">
+        <v>869632</v>
+      </c>
+      <c r="G157" s="9">
+        <v>995459</v>
+      </c>
+      <c r="H157" s="9">
+        <v>1077101</v>
+      </c>
+      <c r="I157" s="9">
+        <v>1399393</v>
+      </c>
+      <c r="J157" s="9">
         <v>1380646</v>
       </c>
-      <c r="F157" s="9">
+      <c r="K157" s="9">
         <v>1566400</v>
       </c>
-      <c r="G157" s="9">
+      <c r="L157" s="9">
         <v>1566875</v>
       </c>
-      <c r="H157" s="9">
+      <c r="M157" s="9">
         <v>1723212</v>
       </c>
-      <c r="I157" s="9">
+      <c r="N157" s="9">
         <v>1610013</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11">
+        <v>95294</v>
+      </c>
+      <c r="F158" s="11">
+        <v>57908</v>
+      </c>
+      <c r="G158" s="11">
+        <v>151362</v>
+      </c>
+      <c r="H158" s="11">
+        <v>145565</v>
+      </c>
+      <c r="I158" s="11">
+        <v>191200</v>
+      </c>
+      <c r="J158" s="11">
         <v>246736</v>
       </c>
-      <c r="F158" s="11">
+      <c r="K158" s="11">
         <v>132055</v>
       </c>
-      <c r="G158" s="11">
+      <c r="L158" s="11">
         <v>183200</v>
       </c>
-      <c r="H158" s="11">
+      <c r="M158" s="11">
         <v>195599</v>
       </c>
-      <c r="I158" s="11">
+      <c r="N158" s="11">
         <v>154610</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9">
+        <v>185687</v>
+      </c>
+      <c r="F159" s="9">
+        <v>510434</v>
+      </c>
+      <c r="G159" s="9">
+        <v>334608</v>
+      </c>
+      <c r="H159" s="9">
+        <v>458650</v>
+      </c>
+      <c r="I159" s="9">
+        <v>378013</v>
+      </c>
+      <c r="J159" s="9">
         <v>501392</v>
       </c>
-      <c r="F159" s="9">
+      <c r="K159" s="9">
         <v>367936</v>
       </c>
-      <c r="G159" s="9">
+      <c r="L159" s="9">
         <v>537159</v>
       </c>
-      <c r="H159" s="9">
+      <c r="M159" s="9">
         <v>600119</v>
       </c>
-      <c r="I159" s="9">
+      <c r="N159" s="9">
         <v>549668</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11">
+        <v>121665</v>
+      </c>
+      <c r="F160" s="11">
+        <v>368803</v>
+      </c>
+      <c r="G160" s="11">
+        <v>204824</v>
+      </c>
+      <c r="H160" s="11">
+        <v>325096</v>
+      </c>
+      <c r="I160" s="11">
+        <v>361731</v>
+      </c>
+      <c r="J160" s="11">
         <v>421486</v>
       </c>
-      <c r="F160" s="11">
+      <c r="K160" s="11">
         <v>368682</v>
       </c>
-      <c r="G160" s="11">
+      <c r="L160" s="11">
         <v>423869</v>
       </c>
-      <c r="H160" s="11">
+      <c r="M160" s="11">
         <v>499743</v>
       </c>
-      <c r="I160" s="11">
+      <c r="N160" s="11">
         <v>335722</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
+        <v>296275</v>
+      </c>
+      <c r="F161" s="9">
+        <v>272007</v>
+      </c>
+      <c r="G161" s="9">
+        <v>560270</v>
+      </c>
+      <c r="H161" s="9">
+        <v>392565</v>
+      </c>
+      <c r="I161" s="9">
+        <v>488113</v>
+      </c>
+      <c r="J161" s="9">
         <v>478466</v>
       </c>
-      <c r="F161" s="9">
+      <c r="K161" s="9">
         <v>528595</v>
       </c>
-      <c r="G161" s="9">
+      <c r="L161" s="9">
         <v>537627</v>
       </c>
-      <c r="H161" s="9">
+      <c r="M161" s="9">
         <v>559274</v>
       </c>
-      <c r="I161" s="9">
+      <c r="N161" s="9">
         <v>438249</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
+        <v>206472</v>
+      </c>
+      <c r="F162" s="11">
+        <v>346719</v>
+      </c>
+      <c r="G162" s="11">
+        <v>418308</v>
+      </c>
+      <c r="H162" s="11">
+        <v>425734</v>
+      </c>
+      <c r="I162" s="11">
+        <v>445936</v>
+      </c>
+      <c r="J162" s="11">
         <v>414443</v>
       </c>
-      <c r="F162" s="11">
+      <c r="K162" s="11">
         <v>515478</v>
       </c>
-      <c r="G162" s="11">
+      <c r="L162" s="11">
         <v>523884</v>
       </c>
-      <c r="H162" s="11">
+      <c r="M162" s="11">
         <v>532423</v>
       </c>
-      <c r="I162" s="11">
+      <c r="N162" s="11">
         <v>448092</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9">
+        <v>108634</v>
+      </c>
+      <c r="F163" s="9">
+        <v>145833</v>
+      </c>
+      <c r="G163" s="9">
+        <v>196391</v>
+      </c>
+      <c r="H163" s="9">
+        <v>231137</v>
+      </c>
+      <c r="I163" s="9">
+        <v>240455</v>
+      </c>
+      <c r="J163" s="9">
         <v>273083</v>
       </c>
-      <c r="F163" s="9">
+      <c r="K163" s="9">
         <v>301983</v>
       </c>
-      <c r="G163" s="9">
+      <c r="L163" s="9">
         <v>395477</v>
       </c>
-      <c r="H163" s="9">
+      <c r="M163" s="9">
         <v>337266</v>
       </c>
-      <c r="I163" s="9">
+      <c r="N163" s="9">
         <v>448170</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3837,8 +5780,13 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3847,8 +5795,13 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -3857,10 +5810,15 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
-    </row>
-    <row r="167" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+    </row>
+    <row r="167" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -3879,8 +5837,23 @@
       <c r="I167" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J167" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K167" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L167" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M167" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N167" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -3889,176 +5862,286 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D169" s="9"/>
-      <c r="E169" s="9">
+      <c r="E169" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H169" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I169" s="9">
+        <v>1390206</v>
+      </c>
+      <c r="J169" s="9">
         <v>1625227</v>
       </c>
-      <c r="F169" s="9">
+      <c r="K169" s="9">
         <v>1787935</v>
       </c>
-      <c r="G169" s="9">
+      <c r="L169" s="9">
         <v>1753429</v>
       </c>
-      <c r="H169" s="9">
+      <c r="M169" s="9">
         <v>1579579</v>
       </c>
-      <c r="I169" s="9">
+      <c r="N169" s="9">
         <v>1868268</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D170" s="11"/>
-      <c r="E170" s="11">
+      <c r="E170" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I170" s="11">
+        <v>162828</v>
+      </c>
+      <c r="J170" s="11">
         <v>119892</v>
       </c>
-      <c r="F170" s="11">
+      <c r="K170" s="11">
         <v>145241</v>
       </c>
-      <c r="G170" s="11">
+      <c r="L170" s="11">
         <v>131531</v>
       </c>
-      <c r="H170" s="11">
+      <c r="M170" s="11">
         <v>112636</v>
       </c>
-      <c r="I170" s="11">
+      <c r="N170" s="11">
         <v>110138</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D171" s="9"/>
-      <c r="E171" s="9">
+      <c r="E171" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I171" s="9">
+        <v>466446</v>
+      </c>
+      <c r="J171" s="9">
         <v>336176</v>
       </c>
-      <c r="F171" s="9">
+      <c r="K171" s="9">
         <v>541952</v>
       </c>
-      <c r="G171" s="9">
+      <c r="L171" s="9">
         <v>860590</v>
       </c>
-      <c r="H171" s="9">
+      <c r="M171" s="9">
         <v>752254</v>
       </c>
-      <c r="I171" s="9">
+      <c r="N171" s="9">
         <v>673758</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D172" s="11"/>
-      <c r="E172" s="11">
+      <c r="E172" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H172" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I172" s="11">
+        <v>327079</v>
+      </c>
+      <c r="J172" s="11">
         <v>326584</v>
       </c>
-      <c r="F172" s="11">
+      <c r="K172" s="11">
         <v>407972</v>
       </c>
-      <c r="G172" s="11">
+      <c r="L172" s="11">
         <v>423630</v>
       </c>
-      <c r="H172" s="11">
+      <c r="M172" s="11">
         <v>290081</v>
       </c>
-      <c r="I172" s="11">
+      <c r="N172" s="11">
         <v>524059</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C173" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C173" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="D173" s="9"/>
-      <c r="E173" s="9">
+      <c r="E173" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H173" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I173" s="9">
+        <v>361845</v>
+      </c>
+      <c r="J173" s="9">
         <v>437172</v>
       </c>
-      <c r="F173" s="9">
+      <c r="K173" s="9">
         <v>406041</v>
       </c>
-      <c r="G173" s="9">
+      <c r="L173" s="9">
         <v>484929</v>
       </c>
-      <c r="H173" s="9">
+      <c r="M173" s="9">
         <v>449112</v>
       </c>
-      <c r="I173" s="9">
+      <c r="N173" s="9">
         <v>699501</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D174" s="11"/>
-      <c r="E174" s="11">
+      <c r="E174" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H174" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I174" s="11">
+        <v>415864</v>
+      </c>
+      <c r="J174" s="11">
         <v>457613</v>
       </c>
-      <c r="F174" s="11">
+      <c r="K174" s="11">
         <v>515350</v>
       </c>
-      <c r="G174" s="11">
+      <c r="L174" s="11">
         <v>563890</v>
       </c>
-      <c r="H174" s="11">
+      <c r="M174" s="11">
         <v>541400</v>
       </c>
-      <c r="I174" s="11">
+      <c r="N174" s="11">
         <v>650320</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D175" s="9"/>
-      <c r="E175" s="9">
+      <c r="E175" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I175" s="9">
+        <v>245580</v>
+      </c>
+      <c r="J175" s="9">
         <v>250468</v>
       </c>
-      <c r="F175" s="9">
+      <c r="K175" s="9">
         <v>273759</v>
       </c>
-      <c r="G175" s="9">
+      <c r="L175" s="9">
         <v>429578</v>
       </c>
-      <c r="H175" s="9">
+      <c r="M175" s="9">
         <v>702776</v>
       </c>
-      <c r="I175" s="9">
+      <c r="N175" s="9">
         <v>497263</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4067,8 +6150,13 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4077,8 +6165,13 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4087,10 +6180,15 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+    </row>
+    <row r="179" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -4109,8 +6207,23 @@
       <c r="I179" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J179" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K179" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L179" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M179" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N179" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4119,10 +6232,15 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
@@ -4141,10 +6259,25 @@
       <c r="I181" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J181" s="9">
+        <v>0</v>
+      </c>
+      <c r="K181" s="9">
+        <v>0</v>
+      </c>
+      <c r="L181" s="9">
+        <v>0</v>
+      </c>
+      <c r="M181" s="9">
+        <v>0</v>
+      </c>
+      <c r="N181" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
@@ -4163,10 +6296,25 @@
       <c r="I182" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J182" s="11">
+        <v>0</v>
+      </c>
+      <c r="K182" s="11">
+        <v>0</v>
+      </c>
+      <c r="L182" s="11">
+        <v>0</v>
+      </c>
+      <c r="M182" s="11">
+        <v>0</v>
+      </c>
+      <c r="N182" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
@@ -4185,10 +6333,25 @@
       <c r="I183" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J183" s="9">
+        <v>0</v>
+      </c>
+      <c r="K183" s="9">
+        <v>0</v>
+      </c>
+      <c r="L183" s="9">
+        <v>0</v>
+      </c>
+      <c r="M183" s="9">
+        <v>0</v>
+      </c>
+      <c r="N183" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
@@ -4207,98 +6370,173 @@
       <c r="I184" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J184" s="11">
+        <v>0</v>
+      </c>
+      <c r="K184" s="11">
+        <v>0</v>
+      </c>
+      <c r="L184" s="11">
+        <v>0</v>
+      </c>
+      <c r="M184" s="11">
+        <v>0</v>
+      </c>
+      <c r="N184" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="9">
+        <v>48047</v>
+      </c>
+      <c r="F185" s="9">
+        <v>63857</v>
+      </c>
+      <c r="G185" s="9">
+        <v>279826</v>
+      </c>
+      <c r="H185" s="9">
+        <v>80155</v>
+      </c>
+      <c r="I185" s="9">
+        <v>88650</v>
+      </c>
+      <c r="J185" s="9">
         <v>114207</v>
       </c>
-      <c r="F185" s="9">
+      <c r="K185" s="9">
         <v>115665</v>
       </c>
-      <c r="G185" s="9">
+      <c r="L185" s="9">
         <v>132921</v>
       </c>
-      <c r="H185" s="9">
+      <c r="M185" s="9">
         <v>142649</v>
       </c>
-      <c r="I185" s="9">
+      <c r="N185" s="9">
         <v>164953</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11">
+        <v>39673</v>
+      </c>
+      <c r="F186" s="11">
+        <v>26923</v>
+      </c>
+      <c r="G186" s="11">
+        <v>38713</v>
+      </c>
+      <c r="H186" s="11">
+        <v>33377</v>
+      </c>
+      <c r="I186" s="11">
+        <v>67047</v>
+      </c>
+      <c r="J186" s="11">
         <v>108640</v>
       </c>
-      <c r="F186" s="11">
+      <c r="K186" s="11">
         <v>151675</v>
       </c>
-      <c r="G186" s="11">
+      <c r="L186" s="11">
         <v>97429</v>
       </c>
-      <c r="H186" s="11">
+      <c r="M186" s="11">
         <v>143664</v>
       </c>
-      <c r="I186" s="11">
+      <c r="N186" s="11">
         <v>82981</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="9">
+        <v>138677</v>
+      </c>
+      <c r="F187" s="9">
+        <v>110205</v>
+      </c>
+      <c r="G187" s="9">
+        <v>62005</v>
+      </c>
+      <c r="H187" s="9">
+        <v>93580</v>
+      </c>
+      <c r="I187" s="9">
+        <v>145271</v>
+      </c>
+      <c r="J187" s="9">
         <v>119425</v>
       </c>
-      <c r="F187" s="9">
+      <c r="K187" s="9">
         <v>153140</v>
       </c>
-      <c r="G187" s="9">
+      <c r="L187" s="9">
         <v>193732</v>
       </c>
-      <c r="H187" s="9">
+      <c r="M187" s="9">
         <v>77180</v>
       </c>
-      <c r="I187" s="9">
+      <c r="N187" s="9">
         <v>161735</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11">
+        <v>397706</v>
+      </c>
+      <c r="F188" s="11">
+        <v>368228</v>
+      </c>
+      <c r="G188" s="11">
+        <v>839920</v>
+      </c>
+      <c r="H188" s="11">
+        <v>745477</v>
+      </c>
+      <c r="I188" s="11">
+        <v>762210</v>
+      </c>
+      <c r="J188" s="11">
         <v>586882</v>
       </c>
-      <c r="F188" s="11">
+      <c r="K188" s="11">
         <v>1017137</v>
       </c>
-      <c r="G188" s="11">
+      <c r="L188" s="11">
         <v>1386496</v>
       </c>
-      <c r="H188" s="11">
+      <c r="M188" s="11">
         <v>862910</v>
       </c>
-      <c r="I188" s="11">
+      <c r="N188" s="11">
         <v>1114938</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
@@ -4317,52 +6555,97 @@
       <c r="I189" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J189" s="9">
+        <v>0</v>
+      </c>
+      <c r="K189" s="9">
+        <v>0</v>
+      </c>
+      <c r="L189" s="9">
+        <v>0</v>
+      </c>
+      <c r="M189" s="9">
+        <v>0</v>
+      </c>
+      <c r="N189" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11">
+        <v>277114</v>
+      </c>
+      <c r="F190" s="11">
+        <v>339995</v>
+      </c>
+      <c r="G190" s="11">
+        <v>94242</v>
+      </c>
+      <c r="H190" s="11">
+        <v>552730</v>
+      </c>
+      <c r="I190" s="11">
+        <v>227110</v>
+      </c>
+      <c r="J190" s="11">
         <v>350914</v>
       </c>
-      <c r="F190" s="11">
+      <c r="K190" s="11">
         <v>368960</v>
       </c>
-      <c r="G190" s="11">
+      <c r="L190" s="11">
         <v>632704</v>
       </c>
-      <c r="H190" s="11">
+      <c r="M190" s="11">
         <v>241476</v>
       </c>
-      <c r="I190" s="11">
+      <c r="N190" s="11">
         <v>359197</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C191" s="15"/>
       <c r="D191" s="15"/>
       <c r="E191" s="15">
+        <v>901217</v>
+      </c>
+      <c r="F191" s="15">
+        <v>909208</v>
+      </c>
+      <c r="G191" s="15">
+        <v>1314706</v>
+      </c>
+      <c r="H191" s="15">
+        <v>1505319</v>
+      </c>
+      <c r="I191" s="15">
+        <v>1290288</v>
+      </c>
+      <c r="J191" s="15">
         <v>1280068</v>
       </c>
-      <c r="F191" s="15">
+      <c r="K191" s="15">
         <v>1806577</v>
       </c>
-      <c r="G191" s="15">
+      <c r="L191" s="15">
         <v>2443282</v>
       </c>
-      <c r="H191" s="15">
+      <c r="M191" s="15">
         <v>1467879</v>
       </c>
-      <c r="I191" s="15">
+      <c r="N191" s="15">
         <v>1883804</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4371,8 +6654,13 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4381,8 +6669,13 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4391,10 +6684,15 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
-    </row>
-    <row r="195" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+    </row>
+    <row r="195" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -4403,8 +6701,13 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -4413,13 +6716,18 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
@@ -4427,13 +6735,18 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
@@ -4441,123 +6754,128 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C202" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" s="8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D204" s="11"/>
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" s="10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D206" s="11"/>
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207" s="8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>

--- a/database/industries/lastic/pekerman/cost/quarterly.xlsx
+++ b/database/industries/lastic/pekerman/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EC7FD3-0843-4E90-998E-5AFCA97CB84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA28CA9-AF4C-45D5-946F-8172CB5F6321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -717,12 +717,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -737,7 +737,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -754,7 +754,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -786,7 +786,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -803,7 +803,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -820,7 +820,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -835,7 +835,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -872,7 +872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -887,7 +887,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -924,7 +924,7 @@
         <v>12076340</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -961,7 +961,7 @@
         <v>685058</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -998,7 +998,7 @@
         <v>1883804</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>14645202</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>14645202</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>-653143</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>13992059</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <v>1</v>
+        <v>2632695</v>
       </c>
       <c r="H19" s="11">
         <v>3809252</v>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="11">
-        <v>915441</v>
+        <v>3644618</v>
       </c>
       <c r="L19" s="11">
         <v>5035014</v>
@@ -1257,7 +1257,7 @@
         <v>3423514</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>-1504510</v>
       </c>
       <c r="G20" s="9">
-        <v>-1176557</v>
+        <v>-3809252</v>
       </c>
       <c r="H20" s="9">
         <v>-4093200</v>
@@ -1294,7 +1294,7 @@
         <v>-3259075</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>14156498</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>14156498</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1420,7 +1420,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1435,7 +1435,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1450,7 +1450,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1502,7 +1502,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>469113</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>31</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>446375</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>1757173</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>1312689</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>35</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>2448746</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>36</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>1936484</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>37</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>2035847</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>17</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>10406427</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1827,7 +1827,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1842,7 +1842,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1857,7 +1857,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>38</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1909,7 +1909,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>29</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>873844</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>31</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>33</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>4419836</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>34</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>2951104</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>35</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>6330240</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>36</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>6071996</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>37</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>4789404</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>17</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>25470424</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2234,7 +2234,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2249,7 +2249,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2264,7 +2264,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>39</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2316,7 +2316,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>29</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>1066805</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>31</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>212049</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>33</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>3527020</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>34</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>2472601</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>35</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>5869071</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>36</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>5266905</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>37</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>5857199</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>17</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>24271650</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2641,7 +2641,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2656,7 +2656,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2671,7 +2671,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>40</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2723,7 +2723,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>29</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>276152</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>31</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>268326</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>33</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>2649989</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>34</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>1791192</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>35</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>2909915</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>36</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>2741575</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>37</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>968052</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>17</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>11605201</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3048,7 +3048,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3063,7 +3063,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3078,7 +3078,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>41</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3130,7 +3130,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>29</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>741001</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>31</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>50278</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>33</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>1321840</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>34</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>380786</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>35</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>1099762</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>36</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>1048412</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>37</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>1430744</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>17</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>6072823</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3455,7 +3455,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3470,7 +3470,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3485,7 +3485,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>43</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3537,7 +3537,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>29</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>1492495</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>31</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>12060</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>33</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>2402300</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>34</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>1388010</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>35</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>3507841</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>36</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>3094546</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>37</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>1675651</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>17</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>13572903</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3862,7 +3862,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3877,7 +3877,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3892,7 +3892,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>44</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3944,7 +3944,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>29</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>1717570</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>31</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>32785</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>33</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>1938689</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>34</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>830106</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>35</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>2572113</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>36</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>2360058</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>37</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>2625019</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>17</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>12076340</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4269,7 +4269,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4284,7 +4284,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4299,7 +4299,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>45</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4351,7 +4351,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>29</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>515926</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>31</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>29553</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>33</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>1785451</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>34</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>938690</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>35</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>2035489</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>36</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>1782900</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>37</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>481376</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>17</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>7569385</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4676,7 +4676,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4691,7 +4691,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4706,7 +4706,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>46</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4758,7 +4758,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>29</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>1579579</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>31</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>112636</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>33</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>752254</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>34</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>290081</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>35</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>449112</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>36</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>541400</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>37</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>702776</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5046,7 +5046,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -5061,7 +5061,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -5076,7 +5076,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>49</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5128,7 +5128,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>29</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>1707965</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>31</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>354706</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>33</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>543527</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>34</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>470336</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>35</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>554140</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>36</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>509642</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>37</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>349866</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5416,7 +5416,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5431,7 +5431,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5446,7 +5446,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>50</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -5498,7 +5498,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>29</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>1610013</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>31</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>154610</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>33</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>549668</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>34</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>335722</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>35</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>438249</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>36</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>448092</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>37</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>448170</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5786,7 +5786,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -5801,7 +5801,7 @@
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -5816,7 +5816,7 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B167" s="7" t="s">
         <v>51</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -5868,7 +5868,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>29</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>1868268</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>31</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>110138</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>33</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>673758</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>34</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>524059</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>35</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>699501</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>36</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>650320</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>37</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>497263</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -6156,7 +6156,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -6171,7 +6171,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -6186,7 +6186,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B179" s="7" t="s">
         <v>53</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -6238,7 +6238,7 @@
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>54</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>55</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>56</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>57</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>58</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>164953</v>
       </c>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>59</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>82981</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>60</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>161735</v>
       </c>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>61</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>1114938</v>
       </c>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>62</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>63</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>359197</v>
       </c>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="14" t="s">
         <v>17</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>1883804</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -6660,7 +6660,7 @@
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -6675,7 +6675,7 @@
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -6690,7 +6690,7 @@
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
     </row>
-    <row r="195" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B195" s="7" t="s">
         <v>64</v>
       </c>
@@ -6707,7 +6707,7 @@
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -6722,7 +6722,7 @@
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
         <v>65</v>
       </c>
@@ -6741,7 +6741,7 @@
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="s">
         <v>67</v>
       </c>
@@ -6760,7 +6760,7 @@
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
         <v>69</v>
       </c>
@@ -6771,7 +6771,7 @@
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
         <v>70</v>
       </c>
@@ -6782,7 +6782,7 @@
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>70</v>
       </c>
@@ -6793,7 +6793,7 @@
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="s">
         <v>72</v>
       </c>
@@ -6804,7 +6804,7 @@
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B203" s="8" t="s">
         <v>73</v>
       </c>
@@ -6815,7 +6815,7 @@
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="10" t="s">
         <v>74</v>
       </c>
@@ -6826,7 +6826,7 @@
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
         <v>75</v>
       </c>
@@ -6837,7 +6837,7 @@
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
         <v>76</v>
       </c>
@@ -6848,7 +6848,7 @@
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
         <v>77</v>
       </c>
@@ -6859,7 +6859,7 @@
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="s">
         <v>75</v>
       </c>
@@ -6870,7 +6870,7 @@
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="8" t="s">
         <v>78</v>
       </c>
